--- a/GAIA IA v.1.2.xlsx
+++ b/GAIA IA v.1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\PEC\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C012CD44-BB65-4C69-8EB2-0D9D33B117ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CD0336-C84E-4E29-8EE9-5BF12545B43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1313,24 +1313,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,6 +1384,24 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1696,9 +1696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999"/>
@@ -1769,128 +1769,128 @@
   <sheetData>
     <row r="1" spans="1:82">
       <c r="A1" s="6"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="61" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="61" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="61" t="s">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="61" t="s">
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="61" t="s">
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="81"/>
+      <c r="BO1" s="81"/>
+      <c r="BP1" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="62"/>
-      <c r="BV1" s="62"/>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="62"/>
-      <c r="BY1" s="62"/>
-      <c r="BZ1" s="63"/>
-      <c r="CA1" s="58" t="s">
+      <c r="BQ1" s="81"/>
+      <c r="BR1" s="81"/>
+      <c r="BS1" s="81"/>
+      <c r="BT1" s="81"/>
+      <c r="BU1" s="81"/>
+      <c r="BV1" s="81"/>
+      <c r="BW1" s="81"/>
+      <c r="BX1" s="81"/>
+      <c r="BY1" s="81"/>
+      <c r="BZ1" s="85"/>
+      <c r="CA1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="59"/>
-      <c r="CD1" s="60"/>
+      <c r="CB1" s="83"/>
+      <c r="CC1" s="83"/>
+      <c r="CD1" s="84"/>
     </row>
     <row r="2" spans="1:82" ht="13.2" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="77" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="78" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="54" t="s">
@@ -1902,28 +1902,28 @@
       <c r="L2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="77" t="s">
         <v>6</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="84" t="s">
+      <c r="T2" s="78" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="54" t="s">
@@ -1935,28 +1935,28 @@
       <c r="W2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="82" t="s">
+      <c r="Z2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="82" t="s">
+      <c r="AA2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="AB2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="83" t="s">
+      <c r="AC2" s="77" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="84" t="s">
+      <c r="AE2" s="78" t="s">
         <v>8</v>
       </c>
       <c r="AF2" s="54" t="s">
@@ -1968,16 +1968,16 @@
       <c r="AH2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="76" t="s">
+      <c r="AI2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="76" t="s">
+      <c r="AJ2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="77" t="s">
+      <c r="AK2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" s="77" t="s">
+      <c r="AL2" s="71" t="s">
         <v>4</v>
       </c>
       <c r="AM2" s="56" t="s">
@@ -1998,19 +1998,19 @@
       <c r="AR2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="64" t="s">
+      <c r="AS2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AT2" s="75" t="s">
+      <c r="AT2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="76" t="s">
+      <c r="AU2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="77" t="s">
+      <c r="AV2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="77" t="s">
+      <c r="AW2" s="71" t="s">
         <v>4</v>
       </c>
       <c r="AX2" s="56" t="s">
@@ -2034,28 +2034,28 @@
       <c r="BD2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BE2" s="85" t="s">
+      <c r="BE2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="BF2" s="76" t="s">
+      <c r="BF2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="BG2" s="82" t="s">
+      <c r="BG2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="82" t="s">
+      <c r="BH2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="BI2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" s="83" t="s">
+      <c r="BJ2" s="77" t="s">
         <v>6</v>
       </c>
       <c r="BK2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="84" t="s">
+      <c r="BL2" s="78" t="s">
         <v>8</v>
       </c>
       <c r="BM2" s="54" t="s">
@@ -2067,16 +2067,16 @@
       <c r="BO2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BP2" s="75" t="s">
+      <c r="BP2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="BQ2" s="76" t="s">
+      <c r="BQ2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" s="82" t="s">
+      <c r="BR2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" s="82" t="s">
+      <c r="BS2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="BT2" s="56" t="s">
@@ -2100,10 +2100,10 @@
       <c r="BZ2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="75" t="s">
+      <c r="CA2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="CB2" s="76" t="s">
+      <c r="CB2" s="70" t="s">
         <v>2</v>
       </c>
       <c r="CC2" s="54" t="s">
@@ -2246,7 +2246,7 @@
       <c r="AR3" s="44">
         <v>5.73</v>
       </c>
-      <c r="AS3" s="65">
+      <c r="AS3" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT3" s="38">
@@ -2282,7 +2282,7 @@
       <c r="BD3" s="45">
         <v>0</v>
       </c>
-      <c r="BE3" s="72">
+      <c r="BE3" s="66">
         <v>0</v>
       </c>
       <c r="BF3" s="39">
@@ -2312,7 +2312,7 @@
       <c r="BN3" s="44">
         <v>0</v>
       </c>
-      <c r="BO3" s="81">
+      <c r="BO3" s="75">
         <v>0</v>
       </c>
       <c r="BP3" s="38">
@@ -2494,7 +2494,7 @@
       <c r="AR4" s="44">
         <v>4.4400000000000004</v>
       </c>
-      <c r="AS4" s="65">
+      <c r="AS4" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT4" s="11">
@@ -2518,19 +2518,19 @@
       <c r="AZ4" s="12">
         <v>0</v>
       </c>
-      <c r="BA4" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="78">
+      <c r="BA4" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="72">
         <v>0</v>
       </c>
       <c r="BD4" s="10">
         <v>0</v>
       </c>
-      <c r="BE4" s="72">
+      <c r="BE4" s="66">
         <v>0</v>
       </c>
       <c r="BF4" s="39">
@@ -2560,7 +2560,7 @@
       <c r="BN4" s="44">
         <v>0</v>
       </c>
-      <c r="BO4" s="81">
+      <c r="BO4" s="75">
         <v>0</v>
       </c>
       <c r="BP4" s="11">
@@ -2584,13 +2584,13 @@
       <c r="BV4" s="12">
         <v>0</v>
       </c>
-      <c r="BW4" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="78">
+      <c r="BW4" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="72">
         <v>0</v>
       </c>
       <c r="BZ4" s="10">
@@ -2742,7 +2742,7 @@
       <c r="AR5" s="44">
         <v>4.4400000000000004</v>
       </c>
-      <c r="AS5" s="65">
+      <c r="AS5" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT5" s="11">
@@ -2766,19 +2766,19 @@
       <c r="AZ5" s="12">
         <v>0</v>
       </c>
-      <c r="BA5" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="78">
+      <c r="BA5" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="72">
         <v>0</v>
       </c>
       <c r="BD5" s="10">
         <v>0</v>
       </c>
-      <c r="BE5" s="72">
+      <c r="BE5" s="66">
         <v>0</v>
       </c>
       <c r="BF5" s="39">
@@ -2808,7 +2808,7 @@
       <c r="BN5" s="44">
         <v>0</v>
       </c>
-      <c r="BO5" s="81">
+      <c r="BO5" s="75">
         <v>0</v>
       </c>
       <c r="BP5" s="11">
@@ -2832,13 +2832,13 @@
       <c r="BV5" s="12">
         <v>0</v>
       </c>
-      <c r="BW5" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="78">
+      <c r="BW5" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="72">
         <v>0</v>
       </c>
       <c r="BZ5" s="10">
@@ -2990,7 +2990,7 @@
       <c r="AR6" s="44">
         <v>6.3800000000000008</v>
       </c>
-      <c r="AS6" s="65">
+      <c r="AS6" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT6" s="11">
@@ -3014,19 +3014,19 @@
       <c r="AZ6" s="12">
         <v>0</v>
       </c>
-      <c r="BA6" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="78">
+      <c r="BA6" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="72">
         <v>0</v>
       </c>
       <c r="BD6" s="10">
         <v>0</v>
       </c>
-      <c r="BE6" s="72">
+      <c r="BE6" s="66">
         <v>0</v>
       </c>
       <c r="BF6" s="39">
@@ -3056,7 +3056,7 @@
       <c r="BN6" s="44">
         <v>0</v>
       </c>
-      <c r="BO6" s="81">
+      <c r="BO6" s="75">
         <v>0</v>
       </c>
       <c r="BP6" s="11">
@@ -3080,13 +3080,13 @@
       <c r="BV6" s="12">
         <v>0</v>
       </c>
-      <c r="BW6" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="78">
+      <c r="BW6" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="72">
         <v>0</v>
       </c>
       <c r="BZ6" s="10">
@@ -3238,7 +3238,7 @@
       <c r="AR7" s="44">
         <v>4.1100000000000003</v>
       </c>
-      <c r="AS7" s="65">
+      <c r="AS7" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT7" s="11">
@@ -3262,19 +3262,19 @@
       <c r="AZ7" s="12">
         <v>0</v>
       </c>
-      <c r="BA7" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="78">
+      <c r="BA7" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="72">
         <v>0</v>
       </c>
       <c r="BD7" s="10">
         <v>0</v>
       </c>
-      <c r="BE7" s="72">
+      <c r="BE7" s="66">
         <v>0</v>
       </c>
       <c r="BF7" s="39">
@@ -3304,7 +3304,7 @@
       <c r="BN7" s="44">
         <v>0</v>
       </c>
-      <c r="BO7" s="81">
+      <c r="BO7" s="75">
         <v>0</v>
       </c>
       <c r="BP7" s="11">
@@ -3328,13 +3328,13 @@
       <c r="BV7" s="12">
         <v>0</v>
       </c>
-      <c r="BW7" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="78">
+      <c r="BW7" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="72">
         <v>0</v>
       </c>
       <c r="BZ7" s="10">
@@ -3486,7 +3486,7 @@
       <c r="AR8" s="44">
         <v>4.1100000000000003</v>
       </c>
-      <c r="AS8" s="65">
+      <c r="AS8" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT8" s="11">
@@ -3510,19 +3510,19 @@
       <c r="AZ8" s="12">
         <v>0</v>
       </c>
-      <c r="BA8" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="78">
+      <c r="BA8" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="72">
         <v>0</v>
       </c>
       <c r="BD8" s="10">
         <v>0</v>
       </c>
-      <c r="BE8" s="72">
+      <c r="BE8" s="66">
         <v>0</v>
       </c>
       <c r="BF8" s="39">
@@ -3552,7 +3552,7 @@
       <c r="BN8" s="44">
         <v>0</v>
       </c>
-      <c r="BO8" s="81">
+      <c r="BO8" s="75">
         <v>0</v>
       </c>
       <c r="BP8" s="11">
@@ -3576,13 +3576,13 @@
       <c r="BV8" s="12">
         <v>0</v>
       </c>
-      <c r="BW8" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="78">
+      <c r="BW8" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="72">
         <v>0</v>
       </c>
       <c r="BZ8" s="10">
@@ -3734,7 +3734,7 @@
       <c r="AR9" s="44">
         <v>11.24</v>
       </c>
-      <c r="AS9" s="65">
+      <c r="AS9" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT9" s="11">
@@ -3758,19 +3758,19 @@
       <c r="AZ9" s="12">
         <v>0</v>
       </c>
-      <c r="BA9" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="78">
+      <c r="BA9" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="72">
         <v>0</v>
       </c>
       <c r="BD9" s="10">
         <v>0</v>
       </c>
-      <c r="BE9" s="72">
+      <c r="BE9" s="66">
         <v>0</v>
       </c>
       <c r="BF9" s="39">
@@ -3800,7 +3800,7 @@
       <c r="BN9" s="44">
         <v>0</v>
       </c>
-      <c r="BO9" s="81">
+      <c r="BO9" s="75">
         <v>0</v>
       </c>
       <c r="BP9" s="11">
@@ -3824,13 +3824,13 @@
       <c r="BV9" s="12">
         <v>0</v>
       </c>
-      <c r="BW9" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="78">
+      <c r="BW9" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="72">
         <v>0</v>
       </c>
       <c r="BZ9" s="10">
@@ -3982,7 +3982,7 @@
       <c r="AR10" s="44">
         <v>23.32</v>
       </c>
-      <c r="AS10" s="65">
+      <c r="AS10" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT10" s="11">
@@ -4006,19 +4006,19 @@
       <c r="AZ10" s="12">
         <v>0</v>
       </c>
-      <c r="BA10" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="78">
+      <c r="BA10" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="72">
         <v>0</v>
       </c>
       <c r="BD10" s="10">
         <v>0</v>
       </c>
-      <c r="BE10" s="72">
+      <c r="BE10" s="66">
         <v>0</v>
       </c>
       <c r="BF10" s="39">
@@ -4048,7 +4048,7 @@
       <c r="BN10" s="44">
         <v>0</v>
       </c>
-      <c r="BO10" s="81">
+      <c r="BO10" s="75">
         <v>0</v>
       </c>
       <c r="BP10" s="11">
@@ -4072,13 +4072,13 @@
       <c r="BV10" s="12">
         <v>0</v>
       </c>
-      <c r="BW10" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="78">
+      <c r="BW10" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="72">
         <v>0</v>
       </c>
       <c r="BZ10" s="10">
@@ -4230,7 +4230,7 @@
       <c r="AR11" s="44">
         <v>23.32</v>
       </c>
-      <c r="AS11" s="65">
+      <c r="AS11" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT11" s="11">
@@ -4254,19 +4254,19 @@
       <c r="AZ11" s="12">
         <v>0</v>
       </c>
-      <c r="BA11" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="78">
+      <c r="BA11" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="72">
         <v>0</v>
       </c>
       <c r="BD11" s="10">
         <v>0</v>
       </c>
-      <c r="BE11" s="72">
+      <c r="BE11" s="66">
         <v>0</v>
       </c>
       <c r="BF11" s="39">
@@ -4296,7 +4296,7 @@
       <c r="BN11" s="44">
         <v>0</v>
       </c>
-      <c r="BO11" s="81">
+      <c r="BO11" s="75">
         <v>0</v>
       </c>
       <c r="BP11" s="11">
@@ -4320,13 +4320,13 @@
       <c r="BV11" s="12">
         <v>0</v>
       </c>
-      <c r="BW11" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="78">
+      <c r="BW11" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="72">
         <v>0</v>
       </c>
       <c r="BZ11" s="10">
@@ -4478,7 +4478,7 @@
       <c r="AR12" s="44">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AS12" s="65">
+      <c r="AS12" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT12" s="11">
@@ -4502,19 +4502,19 @@
       <c r="AZ12" s="12">
         <v>0</v>
       </c>
-      <c r="BA12" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="78">
+      <c r="BA12" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="72">
         <v>0</v>
       </c>
       <c r="BD12" s="10">
         <v>0</v>
       </c>
-      <c r="BE12" s="72">
+      <c r="BE12" s="66">
         <v>0</v>
       </c>
       <c r="BF12" s="39">
@@ -4544,7 +4544,7 @@
       <c r="BN12" s="44">
         <v>0</v>
       </c>
-      <c r="BO12" s="81">
+      <c r="BO12" s="75">
         <v>0</v>
       </c>
       <c r="BP12" s="11">
@@ -4568,13 +4568,13 @@
       <c r="BV12" s="12">
         <v>0</v>
       </c>
-      <c r="BW12" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="78">
+      <c r="BW12" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="72">
         <v>0</v>
       </c>
       <c r="BZ12" s="10">
@@ -4726,7 +4726,7 @@
       <c r="AR13" s="44">
         <v>10.155000000000001</v>
       </c>
-      <c r="AS13" s="65">
+      <c r="AS13" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT13" s="11">
@@ -4750,19 +4750,19 @@
       <c r="AZ13" s="12">
         <v>0</v>
       </c>
-      <c r="BA13" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="78">
+      <c r="BA13" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="72">
         <v>0</v>
       </c>
       <c r="BD13" s="10">
         <v>0</v>
       </c>
-      <c r="BE13" s="72">
+      <c r="BE13" s="66">
         <v>0</v>
       </c>
       <c r="BF13" s="39">
@@ -4792,7 +4792,7 @@
       <c r="BN13" s="44">
         <v>0</v>
       </c>
-      <c r="BO13" s="81">
+      <c r="BO13" s="75">
         <v>0</v>
       </c>
       <c r="BP13" s="11">
@@ -4816,13 +4816,13 @@
       <c r="BV13" s="12">
         <v>0</v>
       </c>
-      <c r="BW13" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="78">
+      <c r="BW13" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="72">
         <v>0</v>
       </c>
       <c r="BZ13" s="10">
@@ -4974,7 +4974,7 @@
       <c r="AR14" s="44">
         <v>10.155000000000001</v>
       </c>
-      <c r="AS14" s="65">
+      <c r="AS14" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT14" s="11">
@@ -4998,19 +4998,19 @@
       <c r="AZ14" s="12">
         <v>0</v>
       </c>
-      <c r="BA14" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="78">
+      <c r="BA14" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="72">
         <v>0</v>
       </c>
       <c r="BD14" s="10">
         <v>0</v>
       </c>
-      <c r="BE14" s="72">
+      <c r="BE14" s="66">
         <v>0</v>
       </c>
       <c r="BF14" s="39">
@@ -5040,7 +5040,7 @@
       <c r="BN14" s="44">
         <v>0</v>
       </c>
-      <c r="BO14" s="81">
+      <c r="BO14" s="75">
         <v>0</v>
       </c>
       <c r="BP14" s="11">
@@ -5064,13 +5064,13 @@
       <c r="BV14" s="12">
         <v>0</v>
       </c>
-      <c r="BW14" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX14" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY14" s="78">
+      <c r="BW14" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="72">
         <v>0</v>
       </c>
       <c r="BZ14" s="10">
@@ -5222,7 +5222,7 @@
       <c r="AR15" s="44">
         <v>4.96</v>
       </c>
-      <c r="AS15" s="65">
+      <c r="AS15" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT15" s="11">
@@ -5246,19 +5246,19 @@
       <c r="AZ15" s="12">
         <v>0</v>
       </c>
-      <c r="BA15" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="78">
+      <c r="BA15" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="72">
         <v>0</v>
       </c>
       <c r="BD15" s="10">
         <v>0</v>
       </c>
-      <c r="BE15" s="72">
+      <c r="BE15" s="66">
         <v>0</v>
       </c>
       <c r="BF15" s="39">
@@ -5288,7 +5288,7 @@
       <c r="BN15" s="44">
         <v>0</v>
       </c>
-      <c r="BO15" s="81">
+      <c r="BO15" s="75">
         <v>0</v>
       </c>
       <c r="BP15" s="11">
@@ -5312,13 +5312,13 @@
       <c r="BV15" s="12">
         <v>0</v>
       </c>
-      <c r="BW15" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="78">
+      <c r="BW15" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="72">
         <v>0</v>
       </c>
       <c r="BZ15" s="10">
@@ -5470,7 +5470,7 @@
       <c r="AR16" s="44">
         <v>7.78</v>
       </c>
-      <c r="AS16" s="65">
+      <c r="AS16" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT16" s="11">
@@ -5494,19 +5494,19 @@
       <c r="AZ16" s="12">
         <v>0</v>
       </c>
-      <c r="BA16" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="78">
+      <c r="BA16" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="72">
         <v>0</v>
       </c>
       <c r="BD16" s="10">
         <v>0</v>
       </c>
-      <c r="BE16" s="72">
+      <c r="BE16" s="66">
         <v>0</v>
       </c>
       <c r="BF16" s="39">
@@ -5536,7 +5536,7 @@
       <c r="BN16" s="44">
         <v>0</v>
       </c>
-      <c r="BO16" s="81">
+      <c r="BO16" s="75">
         <v>0</v>
       </c>
       <c r="BP16" s="11">
@@ -5560,13 +5560,13 @@
       <c r="BV16" s="12">
         <v>0</v>
       </c>
-      <c r="BW16" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX16" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY16" s="78">
+      <c r="BW16" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="72">
         <v>0</v>
       </c>
       <c r="BZ16" s="10">
@@ -5718,7 +5718,7 @@
       <c r="AR17" s="44">
         <v>7.78</v>
       </c>
-      <c r="AS17" s="65">
+      <c r="AS17" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT17" s="11">
@@ -5742,19 +5742,19 @@
       <c r="AZ17" s="12">
         <v>0</v>
       </c>
-      <c r="BA17" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="78">
+      <c r="BA17" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="72">
         <v>0</v>
       </c>
       <c r="BD17" s="10">
         <v>0</v>
       </c>
-      <c r="BE17" s="72">
+      <c r="BE17" s="66">
         <v>0</v>
       </c>
       <c r="BF17" s="39">
@@ -5784,7 +5784,7 @@
       <c r="BN17" s="44">
         <v>0</v>
       </c>
-      <c r="BO17" s="81">
+      <c r="BO17" s="75">
         <v>0</v>
       </c>
       <c r="BP17" s="11">
@@ -5808,13 +5808,13 @@
       <c r="BV17" s="12">
         <v>0</v>
       </c>
-      <c r="BW17" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX17" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY17" s="78">
+      <c r="BW17" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="72">
         <v>0</v>
       </c>
       <c r="BZ17" s="10">
@@ -5966,7 +5966,7 @@
       <c r="AR18" s="44">
         <v>8</v>
       </c>
-      <c r="AS18" s="65">
+      <c r="AS18" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT18" s="11">
@@ -5990,19 +5990,19 @@
       <c r="AZ18" s="12">
         <v>0</v>
       </c>
-      <c r="BA18" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="78">
+      <c r="BA18" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="72">
         <v>0</v>
       </c>
       <c r="BD18" s="10">
         <v>0</v>
       </c>
-      <c r="BE18" s="72">
+      <c r="BE18" s="66">
         <v>0</v>
       </c>
       <c r="BF18" s="39">
@@ -6032,7 +6032,7 @@
       <c r="BN18" s="44">
         <v>0</v>
       </c>
-      <c r="BO18" s="81">
+      <c r="BO18" s="75">
         <v>0</v>
       </c>
       <c r="BP18" s="11">
@@ -6056,13 +6056,13 @@
       <c r="BV18" s="12">
         <v>0</v>
       </c>
-      <c r="BW18" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX18" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY18" s="78">
+      <c r="BW18" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="72">
         <v>0</v>
       </c>
       <c r="BZ18" s="10">
@@ -6214,7 +6214,7 @@
       <c r="AR19" s="44">
         <v>8.65</v>
       </c>
-      <c r="AS19" s="65">
+      <c r="AS19" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT19" s="11">
@@ -6238,19 +6238,19 @@
       <c r="AZ19" s="12">
         <v>0</v>
       </c>
-      <c r="BA19" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="78">
+      <c r="BA19" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="72">
         <v>0</v>
       </c>
       <c r="BD19" s="10">
         <v>0</v>
       </c>
-      <c r="BE19" s="72">
+      <c r="BE19" s="66">
         <v>0</v>
       </c>
       <c r="BF19" s="39">
@@ -6280,7 +6280,7 @@
       <c r="BN19" s="44">
         <v>0</v>
       </c>
-      <c r="BO19" s="81">
+      <c r="BO19" s="75">
         <v>0</v>
       </c>
       <c r="BP19" s="11">
@@ -6304,13 +6304,13 @@
       <c r="BV19" s="12">
         <v>0</v>
       </c>
-      <c r="BW19" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX19" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY19" s="78">
+      <c r="BW19" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="72">
         <v>0</v>
       </c>
       <c r="BZ19" s="10">
@@ -6462,7 +6462,7 @@
       <c r="AR20" s="44">
         <v>8.65</v>
       </c>
-      <c r="AS20" s="65">
+      <c r="AS20" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT20" s="11">
@@ -6486,19 +6486,19 @@
       <c r="AZ20" s="12">
         <v>0</v>
       </c>
-      <c r="BA20" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="78">
+      <c r="BA20" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="72">
         <v>0</v>
       </c>
       <c r="BD20" s="10">
         <v>0</v>
       </c>
-      <c r="BE20" s="72">
+      <c r="BE20" s="66">
         <v>0</v>
       </c>
       <c r="BF20" s="39">
@@ -6528,7 +6528,7 @@
       <c r="BN20" s="44">
         <v>0</v>
       </c>
-      <c r="BO20" s="81">
+      <c r="BO20" s="75">
         <v>0</v>
       </c>
       <c r="BP20" s="11">
@@ -6552,13 +6552,13 @@
       <c r="BV20" s="12">
         <v>0</v>
       </c>
-      <c r="BW20" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX20" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY20" s="78">
+      <c r="BW20" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="72">
         <v>0</v>
       </c>
       <c r="BZ20" s="10">
@@ -6710,7 +6710,7 @@
       <c r="AR21" s="44">
         <v>7.85</v>
       </c>
-      <c r="AS21" s="65">
+      <c r="AS21" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT21" s="11">
@@ -6734,19 +6734,19 @@
       <c r="AZ21" s="12">
         <v>0</v>
       </c>
-      <c r="BA21" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="78">
+      <c r="BA21" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="72">
         <v>0</v>
       </c>
       <c r="BD21" s="10">
         <v>0</v>
       </c>
-      <c r="BE21" s="72">
+      <c r="BE21" s="66">
         <v>0</v>
       </c>
       <c r="BF21" s="39">
@@ -6776,7 +6776,7 @@
       <c r="BN21" s="44">
         <v>0</v>
       </c>
-      <c r="BO21" s="81">
+      <c r="BO21" s="75">
         <v>0</v>
       </c>
       <c r="BP21" s="11">
@@ -6800,13 +6800,13 @@
       <c r="BV21" s="12">
         <v>0</v>
       </c>
-      <c r="BW21" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX21" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY21" s="78">
+      <c r="BW21" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="72">
         <v>0</v>
       </c>
       <c r="BZ21" s="10">
@@ -6958,7 +6958,7 @@
       <c r="AR22" s="44">
         <v>3.3</v>
       </c>
-      <c r="AS22" s="65">
+      <c r="AS22" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT22" s="11">
@@ -6982,19 +6982,19 @@
       <c r="AZ22" s="12">
         <v>0</v>
       </c>
-      <c r="BA22" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="78">
+      <c r="BA22" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="72">
         <v>0</v>
       </c>
       <c r="BD22" s="10">
         <v>0</v>
       </c>
-      <c r="BE22" s="72">
+      <c r="BE22" s="66">
         <v>0</v>
       </c>
       <c r="BF22" s="39">
@@ -7024,7 +7024,7 @@
       <c r="BN22" s="44">
         <v>0</v>
       </c>
-      <c r="BO22" s="81">
+      <c r="BO22" s="75">
         <v>0</v>
       </c>
       <c r="BP22" s="11">
@@ -7048,13 +7048,13 @@
       <c r="BV22" s="12">
         <v>0</v>
       </c>
-      <c r="BW22" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX22" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY22" s="78">
+      <c r="BW22" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="72">
         <v>0</v>
       </c>
       <c r="BZ22" s="10">
@@ -7206,7 +7206,7 @@
       <c r="AR23" s="44">
         <v>3.3</v>
       </c>
-      <c r="AS23" s="65">
+      <c r="AS23" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT23" s="11">
@@ -7230,19 +7230,19 @@
       <c r="AZ23" s="12">
         <v>0</v>
       </c>
-      <c r="BA23" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="78">
+      <c r="BA23" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="72">
         <v>0</v>
       </c>
       <c r="BD23" s="10">
         <v>0</v>
       </c>
-      <c r="BE23" s="72">
+      <c r="BE23" s="66">
         <v>0</v>
       </c>
       <c r="BF23" s="39">
@@ -7272,7 +7272,7 @@
       <c r="BN23" s="44">
         <v>0</v>
       </c>
-      <c r="BO23" s="81">
+      <c r="BO23" s="75">
         <v>0</v>
       </c>
       <c r="BP23" s="11">
@@ -7296,13 +7296,13 @@
       <c r="BV23" s="12">
         <v>0</v>
       </c>
-      <c r="BW23" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX23" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY23" s="78">
+      <c r="BW23" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="72">
         <v>0</v>
       </c>
       <c r="BZ23" s="10">
@@ -7454,7 +7454,7 @@
       <c r="AR24" s="44">
         <v>4.1100000000000003</v>
       </c>
-      <c r="AS24" s="65">
+      <c r="AS24" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT24" s="11">
@@ -7478,19 +7478,19 @@
       <c r="AZ24" s="12">
         <v>0</v>
       </c>
-      <c r="BA24" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="78">
+      <c r="BA24" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="72">
         <v>0</v>
       </c>
       <c r="BD24" s="10">
         <v>0</v>
       </c>
-      <c r="BE24" s="72">
+      <c r="BE24" s="66">
         <v>0</v>
       </c>
       <c r="BF24" s="39">
@@ -7520,7 +7520,7 @@
       <c r="BN24" s="44">
         <v>0</v>
       </c>
-      <c r="BO24" s="81">
+      <c r="BO24" s="75">
         <v>0</v>
       </c>
       <c r="BP24" s="11">
@@ -7544,13 +7544,13 @@
       <c r="BV24" s="12">
         <v>0</v>
       </c>
-      <c r="BW24" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX24" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY24" s="78">
+      <c r="BW24" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="72">
         <v>0</v>
       </c>
       <c r="BZ24" s="10">
@@ -7702,7 +7702,7 @@
       <c r="AR25" s="44">
         <v>4.53</v>
       </c>
-      <c r="AS25" s="65">
+      <c r="AS25" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT25" s="11">
@@ -7726,19 +7726,19 @@
       <c r="AZ25" s="12">
         <v>0</v>
       </c>
-      <c r="BA25" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="78">
+      <c r="BA25" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="72">
         <v>0</v>
       </c>
       <c r="BD25" s="10">
         <v>0</v>
       </c>
-      <c r="BE25" s="72">
+      <c r="BE25" s="66">
         <v>0</v>
       </c>
       <c r="BF25" s="39">
@@ -7768,7 +7768,7 @@
       <c r="BN25" s="44">
         <v>0</v>
       </c>
-      <c r="BO25" s="81">
+      <c r="BO25" s="75">
         <v>0</v>
       </c>
       <c r="BP25" s="11">
@@ -7792,13 +7792,13 @@
       <c r="BV25" s="12">
         <v>0</v>
       </c>
-      <c r="BW25" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX25" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY25" s="78">
+      <c r="BW25" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="72">
         <v>0</v>
       </c>
       <c r="BZ25" s="10">
@@ -7950,7 +7950,7 @@
       <c r="AR26" s="44">
         <v>4.53</v>
       </c>
-      <c r="AS26" s="65">
+      <c r="AS26" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT26" s="11">
@@ -7974,19 +7974,19 @@
       <c r="AZ26" s="12">
         <v>0</v>
       </c>
-      <c r="BA26" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="78">
+      <c r="BA26" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="72">
         <v>0</v>
       </c>
       <c r="BD26" s="10">
         <v>0</v>
       </c>
-      <c r="BE26" s="72">
+      <c r="BE26" s="66">
         <v>0</v>
       </c>
       <c r="BF26" s="39">
@@ -8016,7 +8016,7 @@
       <c r="BN26" s="44">
         <v>0</v>
       </c>
-      <c r="BO26" s="81">
+      <c r="BO26" s="75">
         <v>0</v>
       </c>
       <c r="BP26" s="11">
@@ -8040,13 +8040,13 @@
       <c r="BV26" s="12">
         <v>0</v>
       </c>
-      <c r="BW26" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX26" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY26" s="78">
+      <c r="BW26" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="72">
         <v>0</v>
       </c>
       <c r="BZ26" s="10">
@@ -8198,7 +8198,7 @@
       <c r="AR27" s="44">
         <v>4.8600000000000003</v>
       </c>
-      <c r="AS27" s="65">
+      <c r="AS27" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT27" s="11">
@@ -8222,19 +8222,19 @@
       <c r="AZ27" s="12">
         <v>0</v>
       </c>
-      <c r="BA27" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="78">
+      <c r="BA27" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="72">
         <v>0</v>
       </c>
       <c r="BD27" s="10">
         <v>0</v>
       </c>
-      <c r="BE27" s="72">
+      <c r="BE27" s="66">
         <v>0</v>
       </c>
       <c r="BF27" s="39">
@@ -8264,7 +8264,7 @@
       <c r="BN27" s="44">
         <v>0</v>
       </c>
-      <c r="BO27" s="81">
+      <c r="BO27" s="75">
         <v>0</v>
       </c>
       <c r="BP27" s="11">
@@ -8288,13 +8288,13 @@
       <c r="BV27" s="12">
         <v>0</v>
       </c>
-      <c r="BW27" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX27" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY27" s="78">
+      <c r="BW27" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="72">
         <v>0</v>
       </c>
       <c r="BZ27" s="10">
@@ -8446,7 +8446,7 @@
       <c r="AR28" s="44">
         <v>4.74</v>
       </c>
-      <c r="AS28" s="65">
+      <c r="AS28" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT28" s="11">
@@ -8470,19 +8470,19 @@
       <c r="AZ28" s="12">
         <v>0</v>
       </c>
-      <c r="BA28" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="78">
+      <c r="BA28" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="72">
         <v>0</v>
       </c>
       <c r="BD28" s="10">
         <v>0</v>
       </c>
-      <c r="BE28" s="72">
+      <c r="BE28" s="66">
         <v>0</v>
       </c>
       <c r="BF28" s="39">
@@ -8512,7 +8512,7 @@
       <c r="BN28" s="44">
         <v>0</v>
       </c>
-      <c r="BO28" s="81">
+      <c r="BO28" s="75">
         <v>0</v>
       </c>
       <c r="BP28" s="11">
@@ -8536,13 +8536,13 @@
       <c r="BV28" s="12">
         <v>0</v>
       </c>
-      <c r="BW28" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX28" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY28" s="78">
+      <c r="BW28" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY28" s="72">
         <v>0</v>
       </c>
       <c r="BZ28" s="10">
@@ -8694,7 +8694,7 @@
       <c r="AR29" s="44">
         <v>4.74</v>
       </c>
-      <c r="AS29" s="65">
+      <c r="AS29" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT29" s="11">
@@ -8718,19 +8718,19 @@
       <c r="AZ29" s="12">
         <v>0</v>
       </c>
-      <c r="BA29" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="78">
+      <c r="BA29" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="72">
         <v>0</v>
       </c>
       <c r="BD29" s="10">
         <v>0</v>
       </c>
-      <c r="BE29" s="72">
+      <c r="BE29" s="66">
         <v>0</v>
       </c>
       <c r="BF29" s="39">
@@ -8760,7 +8760,7 @@
       <c r="BN29" s="44">
         <v>0</v>
       </c>
-      <c r="BO29" s="81">
+      <c r="BO29" s="75">
         <v>0</v>
       </c>
       <c r="BP29" s="11">
@@ -8784,13 +8784,13 @@
       <c r="BV29" s="12">
         <v>0</v>
       </c>
-      <c r="BW29" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX29" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY29" s="78">
+      <c r="BW29" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY29" s="72">
         <v>0</v>
       </c>
       <c r="BZ29" s="10">
@@ -8942,7 +8942,7 @@
       <c r="AR30" s="44">
         <v>4.7300000000000004</v>
       </c>
-      <c r="AS30" s="65">
+      <c r="AS30" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT30" s="11">
@@ -8966,19 +8966,19 @@
       <c r="AZ30" s="12">
         <v>0</v>
       </c>
-      <c r="BA30" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC30" s="78">
+      <c r="BA30" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="72">
         <v>0</v>
       </c>
       <c r="BD30" s="10">
         <v>0</v>
       </c>
-      <c r="BE30" s="72">
+      <c r="BE30" s="66">
         <v>0</v>
       </c>
       <c r="BF30" s="39">
@@ -9008,7 +9008,7 @@
       <c r="BN30" s="44">
         <v>0</v>
       </c>
-      <c r="BO30" s="81">
+      <c r="BO30" s="75">
         <v>0</v>
       </c>
       <c r="BP30" s="11">
@@ -9032,13 +9032,13 @@
       <c r="BV30" s="12">
         <v>0</v>
       </c>
-      <c r="BW30" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX30" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY30" s="78">
+      <c r="BW30" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="72">
         <v>0</v>
       </c>
       <c r="BZ30" s="10">
@@ -9190,7 +9190,7 @@
       <c r="AR31" s="44">
         <v>2.94</v>
       </c>
-      <c r="AS31" s="65">
+      <c r="AS31" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT31" s="11">
@@ -9214,19 +9214,19 @@
       <c r="AZ31" s="12">
         <v>0</v>
       </c>
-      <c r="BA31" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="78">
+      <c r="BA31" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="72">
         <v>0</v>
       </c>
       <c r="BD31" s="10">
         <v>0</v>
       </c>
-      <c r="BE31" s="72">
+      <c r="BE31" s="66">
         <v>0</v>
       </c>
       <c r="BF31" s="39">
@@ -9256,7 +9256,7 @@
       <c r="BN31" s="44">
         <v>0</v>
       </c>
-      <c r="BO31" s="81">
+      <c r="BO31" s="75">
         <v>0</v>
       </c>
       <c r="BP31" s="11">
@@ -9280,13 +9280,13 @@
       <c r="BV31" s="12">
         <v>0</v>
       </c>
-      <c r="BW31" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX31" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY31" s="78">
+      <c r="BW31" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY31" s="72">
         <v>0</v>
       </c>
       <c r="BZ31" s="10">
@@ -9438,7 +9438,7 @@
       <c r="AR32" s="44">
         <v>2.94</v>
       </c>
-      <c r="AS32" s="65">
+      <c r="AS32" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT32" s="11">
@@ -9462,19 +9462,19 @@
       <c r="AZ32" s="12">
         <v>0</v>
       </c>
-      <c r="BA32" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="78">
+      <c r="BA32" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="72">
         <v>0</v>
       </c>
       <c r="BD32" s="10">
         <v>0</v>
       </c>
-      <c r="BE32" s="72">
+      <c r="BE32" s="66">
         <v>0</v>
       </c>
       <c r="BF32" s="39">
@@ -9504,7 +9504,7 @@
       <c r="BN32" s="44">
         <v>0</v>
       </c>
-      <c r="BO32" s="81">
+      <c r="BO32" s="75">
         <v>0</v>
       </c>
       <c r="BP32" s="11">
@@ -9528,13 +9528,13 @@
       <c r="BV32" s="12">
         <v>0</v>
       </c>
-      <c r="BW32" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX32" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY32" s="78">
+      <c r="BW32" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX32" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY32" s="72">
         <v>0</v>
       </c>
       <c r="BZ32" s="10">
@@ -9686,7 +9686,7 @@
       <c r="AR33" s="44">
         <v>6.82</v>
       </c>
-      <c r="AS33" s="65">
+      <c r="AS33" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT33" s="11">
@@ -9710,19 +9710,19 @@
       <c r="AZ33" s="12">
         <v>0</v>
       </c>
-      <c r="BA33" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="78">
+      <c r="BA33" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="72">
         <v>0</v>
       </c>
       <c r="BD33" s="10">
         <v>0</v>
       </c>
-      <c r="BE33" s="72">
+      <c r="BE33" s="66">
         <v>0</v>
       </c>
       <c r="BF33" s="39">
@@ -9752,7 +9752,7 @@
       <c r="BN33" s="44">
         <v>0</v>
       </c>
-      <c r="BO33" s="81">
+      <c r="BO33" s="75">
         <v>0</v>
       </c>
       <c r="BP33" s="11">
@@ -9776,13 +9776,13 @@
       <c r="BV33" s="12">
         <v>0</v>
       </c>
-      <c r="BW33" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX33" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY33" s="78">
+      <c r="BW33" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="72">
         <v>0</v>
       </c>
       <c r="BZ33" s="10">
@@ -9934,7 +9934,7 @@
       <c r="AR34" s="44">
         <v>2.9</v>
       </c>
-      <c r="AS34" s="65">
+      <c r="AS34" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT34" s="11">
@@ -9958,19 +9958,19 @@
       <c r="AZ34" s="12">
         <v>0</v>
       </c>
-      <c r="BA34" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="78">
+      <c r="BA34" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="72">
         <v>0</v>
       </c>
       <c r="BD34" s="10">
         <v>0</v>
       </c>
-      <c r="BE34" s="72">
+      <c r="BE34" s="66">
         <v>0</v>
       </c>
       <c r="BF34" s="39">
@@ -10000,7 +10000,7 @@
       <c r="BN34" s="44">
         <v>0</v>
       </c>
-      <c r="BO34" s="81">
+      <c r="BO34" s="75">
         <v>0</v>
       </c>
       <c r="BP34" s="11">
@@ -10024,13 +10024,13 @@
       <c r="BV34" s="12">
         <v>0</v>
       </c>
-      <c r="BW34" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX34" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY34" s="78">
+      <c r="BW34" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="72">
         <v>0</v>
       </c>
       <c r="BZ34" s="10">
@@ -10182,7 +10182,7 @@
       <c r="AR35" s="44">
         <v>2.9</v>
       </c>
-      <c r="AS35" s="65">
+      <c r="AS35" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT35" s="11">
@@ -10206,19 +10206,19 @@
       <c r="AZ35" s="12">
         <v>0</v>
       </c>
-      <c r="BA35" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="78">
+      <c r="BA35" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="72">
         <v>0</v>
       </c>
       <c r="BD35" s="10">
         <v>0</v>
       </c>
-      <c r="BE35" s="72">
+      <c r="BE35" s="66">
         <v>0</v>
       </c>
       <c r="BF35" s="39">
@@ -10248,7 +10248,7 @@
       <c r="BN35" s="44">
         <v>0</v>
       </c>
-      <c r="BO35" s="81">
+      <c r="BO35" s="75">
         <v>0</v>
       </c>
       <c r="BP35" s="11">
@@ -10272,13 +10272,13 @@
       <c r="BV35" s="12">
         <v>0</v>
       </c>
-      <c r="BW35" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX35" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY35" s="78">
+      <c r="BW35" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="72">
         <v>0</v>
       </c>
       <c r="BZ35" s="10">
@@ -10430,7 +10430,7 @@
       <c r="AR36" s="44">
         <v>4.5</v>
       </c>
-      <c r="AS36" s="65">
+      <c r="AS36" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT36" s="11">
@@ -10454,19 +10454,19 @@
       <c r="AZ36" s="12">
         <v>0</v>
       </c>
-      <c r="BA36" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="78">
+      <c r="BA36" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="72">
         <v>0</v>
       </c>
       <c r="BD36" s="10">
         <v>0</v>
       </c>
-      <c r="BE36" s="72">
+      <c r="BE36" s="66">
         <v>0</v>
       </c>
       <c r="BF36" s="39">
@@ -10496,7 +10496,7 @@
       <c r="BN36" s="44">
         <v>0</v>
       </c>
-      <c r="BO36" s="81">
+      <c r="BO36" s="75">
         <v>0</v>
       </c>
       <c r="BP36" s="11">
@@ -10520,13 +10520,13 @@
       <c r="BV36" s="12">
         <v>0</v>
       </c>
-      <c r="BW36" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX36" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY36" s="78">
+      <c r="BW36" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX36" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY36" s="72">
         <v>0</v>
       </c>
       <c r="BZ36" s="10">
@@ -10678,7 +10678,7 @@
       <c r="AR37" s="44">
         <v>4.12</v>
       </c>
-      <c r="AS37" s="65">
+      <c r="AS37" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT37" s="11">
@@ -10702,19 +10702,19 @@
       <c r="AZ37" s="12">
         <v>0</v>
       </c>
-      <c r="BA37" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB37" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="78">
+      <c r="BA37" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="72">
         <v>0</v>
       </c>
       <c r="BD37" s="10">
         <v>0</v>
       </c>
-      <c r="BE37" s="72">
+      <c r="BE37" s="66">
         <v>0</v>
       </c>
       <c r="BF37" s="39">
@@ -10744,7 +10744,7 @@
       <c r="BN37" s="44">
         <v>0</v>
       </c>
-      <c r="BO37" s="81">
+      <c r="BO37" s="75">
         <v>0</v>
       </c>
       <c r="BP37" s="11">
@@ -10768,13 +10768,13 @@
       <c r="BV37" s="12">
         <v>0</v>
       </c>
-      <c r="BW37" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX37" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY37" s="78">
+      <c r="BW37" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX37" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY37" s="72">
         <v>0</v>
       </c>
       <c r="BZ37" s="10">
@@ -10926,7 +10926,7 @@
       <c r="AR38" s="44">
         <v>4.12</v>
       </c>
-      <c r="AS38" s="65">
+      <c r="AS38" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT38" s="11">
@@ -10950,19 +10950,19 @@
       <c r="AZ38" s="12">
         <v>0</v>
       </c>
-      <c r="BA38" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="78">
+      <c r="BA38" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="72">
         <v>0</v>
       </c>
       <c r="BD38" s="10">
         <v>0</v>
       </c>
-      <c r="BE38" s="72">
+      <c r="BE38" s="66">
         <v>0</v>
       </c>
       <c r="BF38" s="39">
@@ -10992,7 +10992,7 @@
       <c r="BN38" s="44">
         <v>0</v>
       </c>
-      <c r="BO38" s="81">
+      <c r="BO38" s="75">
         <v>0</v>
       </c>
       <c r="BP38" s="11">
@@ -11016,13 +11016,13 @@
       <c r="BV38" s="12">
         <v>0</v>
       </c>
-      <c r="BW38" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX38" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY38" s="78">
+      <c r="BW38" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX38" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY38" s="72">
         <v>0</v>
       </c>
       <c r="BZ38" s="10">
@@ -11174,7 +11174,7 @@
       <c r="AR39" s="44">
         <v>4.17</v>
       </c>
-      <c r="AS39" s="65">
+      <c r="AS39" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT39" s="11">
@@ -11198,19 +11198,19 @@
       <c r="AZ39" s="12">
         <v>0</v>
       </c>
-      <c r="BA39" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="78">
+      <c r="BA39" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="72">
         <v>0</v>
       </c>
       <c r="BD39" s="10">
         <v>0</v>
       </c>
-      <c r="BE39" s="72">
+      <c r="BE39" s="66">
         <v>0</v>
       </c>
       <c r="BF39" s="39">
@@ -11240,7 +11240,7 @@
       <c r="BN39" s="44">
         <v>0</v>
       </c>
-      <c r="BO39" s="65">
+      <c r="BO39" s="59">
         <v>0</v>
       </c>
       <c r="BP39" s="11">
@@ -11264,13 +11264,13 @@
       <c r="BV39" s="12">
         <v>0</v>
       </c>
-      <c r="BW39" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX39" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY39" s="78">
+      <c r="BW39" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX39" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY39" s="72">
         <v>0</v>
       </c>
       <c r="BZ39" s="48">
@@ -11422,7 +11422,7 @@
       <c r="AR40" s="44">
         <v>4.54</v>
       </c>
-      <c r="AS40" s="65">
+      <c r="AS40" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT40" s="11">
@@ -11446,19 +11446,19 @@
       <c r="AZ40" s="12">
         <v>0</v>
       </c>
-      <c r="BA40" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="78">
+      <c r="BA40" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="72">
         <v>0</v>
       </c>
       <c r="BD40" s="10">
         <v>0</v>
       </c>
-      <c r="BE40" s="72">
+      <c r="BE40" s="66">
         <v>0</v>
       </c>
       <c r="BF40" s="39">
@@ -11488,7 +11488,7 @@
       <c r="BN40" s="44">
         <v>0</v>
       </c>
-      <c r="BO40" s="65">
+      <c r="BO40" s="59">
         <v>0</v>
       </c>
       <c r="BP40" s="11">
@@ -11512,13 +11512,13 @@
       <c r="BV40" s="12">
         <v>0</v>
       </c>
-      <c r="BW40" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX40" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY40" s="78">
+      <c r="BW40" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX40" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY40" s="72">
         <v>0</v>
       </c>
       <c r="BZ40" s="48">
@@ -11670,7 +11670,7 @@
       <c r="AR41" s="44">
         <v>4.54</v>
       </c>
-      <c r="AS41" s="65">
+      <c r="AS41" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT41" s="11">
@@ -11694,19 +11694,19 @@
       <c r="AZ41" s="12">
         <v>0</v>
       </c>
-      <c r="BA41" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC41" s="78">
+      <c r="BA41" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="72">
         <v>0</v>
       </c>
       <c r="BD41" s="10">
         <v>0</v>
       </c>
-      <c r="BE41" s="72">
+      <c r="BE41" s="66">
         <v>0</v>
       </c>
       <c r="BF41" s="39">
@@ -11736,7 +11736,7 @@
       <c r="BN41" s="44">
         <v>0</v>
       </c>
-      <c r="BO41" s="65">
+      <c r="BO41" s="59">
         <v>0</v>
       </c>
       <c r="BP41" s="11">
@@ -11760,13 +11760,13 @@
       <c r="BV41" s="12">
         <v>0</v>
       </c>
-      <c r="BW41" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX41" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY41" s="78">
+      <c r="BW41" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX41" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY41" s="72">
         <v>0</v>
       </c>
       <c r="BZ41" s="48">
@@ -11918,7 +11918,7 @@
       <c r="AR42" s="44">
         <v>2.99</v>
       </c>
-      <c r="AS42" s="65">
+      <c r="AS42" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT42" s="11">
@@ -11942,19 +11942,19 @@
       <c r="AZ42" s="12">
         <v>0</v>
       </c>
-      <c r="BA42" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB42" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC42" s="78">
+      <c r="BA42" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="72">
         <v>0</v>
       </c>
       <c r="BD42" s="10">
         <v>0</v>
       </c>
-      <c r="BE42" s="72">
+      <c r="BE42" s="66">
         <v>0</v>
       </c>
       <c r="BF42" s="39">
@@ -11984,7 +11984,7 @@
       <c r="BN42" s="44">
         <v>0</v>
       </c>
-      <c r="BO42" s="65">
+      <c r="BO42" s="59">
         <v>0</v>
       </c>
       <c r="BP42" s="11">
@@ -12008,13 +12008,13 @@
       <c r="BV42" s="12">
         <v>0</v>
       </c>
-      <c r="BW42" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX42" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY42" s="78">
+      <c r="BW42" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX42" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY42" s="72">
         <v>0</v>
       </c>
       <c r="BZ42" s="48">
@@ -12166,7 +12166,7 @@
       <c r="AR43" s="44">
         <v>4.37</v>
       </c>
-      <c r="AS43" s="65">
+      <c r="AS43" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT43" s="11">
@@ -12190,19 +12190,19 @@
       <c r="AZ43" s="12">
         <v>0</v>
       </c>
-      <c r="BA43" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB43" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC43" s="78">
+      <c r="BA43" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="72">
         <v>0</v>
       </c>
       <c r="BD43" s="10">
         <v>0</v>
       </c>
-      <c r="BE43" s="72">
+      <c r="BE43" s="66">
         <v>0</v>
       </c>
       <c r="BF43" s="39">
@@ -12232,7 +12232,7 @@
       <c r="BN43" s="44">
         <v>0</v>
       </c>
-      <c r="BO43" s="65">
+      <c r="BO43" s="59">
         <v>0</v>
       </c>
       <c r="BP43" s="11">
@@ -12256,13 +12256,13 @@
       <c r="BV43" s="12">
         <v>0</v>
       </c>
-      <c r="BW43" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX43" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY43" s="78">
+      <c r="BW43" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX43" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY43" s="72">
         <v>0</v>
       </c>
       <c r="BZ43" s="48">
@@ -12414,7 +12414,7 @@
       <c r="AR44" s="44">
         <v>4.37</v>
       </c>
-      <c r="AS44" s="65">
+      <c r="AS44" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT44" s="11">
@@ -12438,19 +12438,19 @@
       <c r="AZ44" s="12">
         <v>0</v>
       </c>
-      <c r="BA44" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB44" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC44" s="78">
+      <c r="BA44" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="72">
         <v>0</v>
       </c>
       <c r="BD44" s="10">
         <v>0</v>
       </c>
-      <c r="BE44" s="72">
+      <c r="BE44" s="66">
         <v>0</v>
       </c>
       <c r="BF44" s="39">
@@ -12480,7 +12480,7 @@
       <c r="BN44" s="44">
         <v>0</v>
       </c>
-      <c r="BO44" s="65">
+      <c r="BO44" s="59">
         <v>0</v>
       </c>
       <c r="BP44" s="11">
@@ -12504,13 +12504,13 @@
       <c r="BV44" s="12">
         <v>0</v>
       </c>
-      <c r="BW44" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX44" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY44" s="78">
+      <c r="BW44" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX44" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY44" s="72">
         <v>0</v>
       </c>
       <c r="BZ44" s="48">
@@ -12662,7 +12662,7 @@
       <c r="AR45" s="44">
         <v>4.07</v>
       </c>
-      <c r="AS45" s="65">
+      <c r="AS45" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT45" s="11">
@@ -12686,19 +12686,19 @@
       <c r="AZ45" s="12">
         <v>0</v>
       </c>
-      <c r="BA45" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB45" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC45" s="78">
+      <c r="BA45" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="72">
         <v>0</v>
       </c>
       <c r="BD45" s="10">
         <v>0</v>
       </c>
-      <c r="BE45" s="72">
+      <c r="BE45" s="66">
         <v>0</v>
       </c>
       <c r="BF45" s="39">
@@ -12728,7 +12728,7 @@
       <c r="BN45" s="44">
         <v>0</v>
       </c>
-      <c r="BO45" s="65">
+      <c r="BO45" s="59">
         <v>0</v>
       </c>
       <c r="BP45" s="11">
@@ -12752,13 +12752,13 @@
       <c r="BV45" s="12">
         <v>0</v>
       </c>
-      <c r="BW45" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX45" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY45" s="78">
+      <c r="BW45" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX45" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY45" s="72">
         <v>0</v>
       </c>
       <c r="BZ45" s="48">
@@ -12910,7 +12910,7 @@
       <c r="AR46" s="44">
         <v>4.07</v>
       </c>
-      <c r="AS46" s="65">
+      <c r="AS46" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT46" s="11">
@@ -12934,19 +12934,19 @@
       <c r="AZ46" s="12">
         <v>0</v>
       </c>
-      <c r="BA46" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB46" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC46" s="78">
+      <c r="BA46" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC46" s="72">
         <v>0</v>
       </c>
       <c r="BD46" s="10">
         <v>0</v>
       </c>
-      <c r="BE46" s="72">
+      <c r="BE46" s="66">
         <v>0</v>
       </c>
       <c r="BF46" s="39">
@@ -12976,7 +12976,7 @@
       <c r="BN46" s="44">
         <v>0</v>
       </c>
-      <c r="BO46" s="65">
+      <c r="BO46" s="59">
         <v>0</v>
       </c>
       <c r="BP46" s="11">
@@ -13000,13 +13000,13 @@
       <c r="BV46" s="12">
         <v>0</v>
       </c>
-      <c r="BW46" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX46" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY46" s="78">
+      <c r="BW46" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX46" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY46" s="72">
         <v>0</v>
       </c>
       <c r="BZ46" s="48">
@@ -13158,7 +13158,7 @@
       <c r="AR47" s="44">
         <v>5.88</v>
       </c>
-      <c r="AS47" s="65">
+      <c r="AS47" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT47" s="11">
@@ -13182,19 +13182,19 @@
       <c r="AZ47" s="12">
         <v>0</v>
       </c>
-      <c r="BA47" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB47" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC47" s="78">
+      <c r="BA47" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="72">
         <v>0</v>
       </c>
       <c r="BD47" s="10">
         <v>0</v>
       </c>
-      <c r="BE47" s="72">
+      <c r="BE47" s="66">
         <v>0</v>
       </c>
       <c r="BF47" s="39">
@@ -13224,7 +13224,7 @@
       <c r="BN47" s="44">
         <v>0</v>
       </c>
-      <c r="BO47" s="65">
+      <c r="BO47" s="59">
         <v>0</v>
       </c>
       <c r="BP47" s="11">
@@ -13248,13 +13248,13 @@
       <c r="BV47" s="12">
         <v>0</v>
       </c>
-      <c r="BW47" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX47" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY47" s="78">
+      <c r="BW47" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX47" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY47" s="72">
         <v>0</v>
       </c>
       <c r="BZ47" s="48">
@@ -13406,7 +13406,7 @@
       <c r="AR48" s="44">
         <v>5.88</v>
       </c>
-      <c r="AS48" s="65">
+      <c r="AS48" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT48" s="11">
@@ -13430,19 +13430,19 @@
       <c r="AZ48" s="12">
         <v>0</v>
       </c>
-      <c r="BA48" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB48" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC48" s="78">
+      <c r="BA48" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="72">
         <v>0</v>
       </c>
       <c r="BD48" s="10">
         <v>0</v>
       </c>
-      <c r="BE48" s="72">
+      <c r="BE48" s="66">
         <v>0</v>
       </c>
       <c r="BF48" s="39">
@@ -13472,7 +13472,7 @@
       <c r="BN48" s="44">
         <v>0</v>
       </c>
-      <c r="BO48" s="65">
+      <c r="BO48" s="59">
         <v>0</v>
       </c>
       <c r="BP48" s="11">
@@ -13496,13 +13496,13 @@
       <c r="BV48" s="12">
         <v>0</v>
       </c>
-      <c r="BW48" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX48" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY48" s="78">
+      <c r="BW48" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX48" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY48" s="72">
         <v>0</v>
       </c>
       <c r="BZ48" s="48">
@@ -13654,7 +13654,7 @@
       <c r="AR49" s="44">
         <v>4.67</v>
       </c>
-      <c r="AS49" s="65">
+      <c r="AS49" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT49" s="11">
@@ -13678,19 +13678,19 @@
       <c r="AZ49" s="12">
         <v>0</v>
       </c>
-      <c r="BA49" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC49" s="78">
+      <c r="BA49" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="72">
         <v>0</v>
       </c>
       <c r="BD49" s="10">
         <v>0</v>
       </c>
-      <c r="BE49" s="72">
+      <c r="BE49" s="66">
         <v>0</v>
       </c>
       <c r="BF49" s="39">
@@ -13720,7 +13720,7 @@
       <c r="BN49" s="44">
         <v>0</v>
       </c>
-      <c r="BO49" s="65">
+      <c r="BO49" s="59">
         <v>0</v>
       </c>
       <c r="BP49" s="11">
@@ -13744,13 +13744,13 @@
       <c r="BV49" s="12">
         <v>0</v>
       </c>
-      <c r="BW49" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX49" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY49" s="78">
+      <c r="BW49" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX49" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY49" s="72">
         <v>0</v>
       </c>
       <c r="BZ49" s="48">
@@ -13902,7 +13902,7 @@
       <c r="AR50" s="44">
         <v>4.95</v>
       </c>
-      <c r="AS50" s="65">
+      <c r="AS50" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT50" s="11">
@@ -13926,19 +13926,19 @@
       <c r="AZ50" s="12">
         <v>0</v>
       </c>
-      <c r="BA50" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB50" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC50" s="78">
+      <c r="BA50" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="72">
         <v>0</v>
       </c>
       <c r="BD50" s="10">
         <v>0</v>
       </c>
-      <c r="BE50" s="72">
+      <c r="BE50" s="66">
         <v>0</v>
       </c>
       <c r="BF50" s="39">
@@ -13968,7 +13968,7 @@
       <c r="BN50" s="44">
         <v>0</v>
       </c>
-      <c r="BO50" s="65">
+      <c r="BO50" s="59">
         <v>0</v>
       </c>
       <c r="BP50" s="11">
@@ -13992,13 +13992,13 @@
       <c r="BV50" s="12">
         <v>0</v>
       </c>
-      <c r="BW50" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX50" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY50" s="78">
+      <c r="BW50" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX50" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY50" s="72">
         <v>0</v>
       </c>
       <c r="BZ50" s="48">
@@ -14150,7 +14150,7 @@
       <c r="AR51" s="44">
         <v>4.95</v>
       </c>
-      <c r="AS51" s="65">
+      <c r="AS51" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT51" s="11">
@@ -14174,19 +14174,19 @@
       <c r="AZ51" s="12">
         <v>0</v>
       </c>
-      <c r="BA51" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB51" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC51" s="78">
+      <c r="BA51" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="72">
         <v>0</v>
       </c>
       <c r="BD51" s="10">
         <v>0</v>
       </c>
-      <c r="BE51" s="72">
+      <c r="BE51" s="66">
         <v>0</v>
       </c>
       <c r="BF51" s="39">
@@ -14216,7 +14216,7 @@
       <c r="BN51" s="44">
         <v>0</v>
       </c>
-      <c r="BO51" s="65">
+      <c r="BO51" s="59">
         <v>0</v>
       </c>
       <c r="BP51" s="11">
@@ -14240,13 +14240,13 @@
       <c r="BV51" s="12">
         <v>0</v>
       </c>
-      <c r="BW51" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX51" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY51" s="78">
+      <c r="BW51" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX51" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY51" s="72">
         <v>0</v>
       </c>
       <c r="BZ51" s="48">
@@ -14398,7 +14398,7 @@
       <c r="AR52" s="44">
         <v>4.97</v>
       </c>
-      <c r="AS52" s="65">
+      <c r="AS52" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT52" s="11">
@@ -14422,19 +14422,19 @@
       <c r="AZ52" s="12">
         <v>0</v>
       </c>
-      <c r="BA52" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB52" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC52" s="78">
+      <c r="BA52" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC52" s="72">
         <v>0</v>
       </c>
       <c r="BD52" s="10">
         <v>0</v>
       </c>
-      <c r="BE52" s="72">
+      <c r="BE52" s="66">
         <v>0</v>
       </c>
       <c r="BF52" s="39">
@@ -14464,7 +14464,7 @@
       <c r="BN52" s="44">
         <v>0</v>
       </c>
-      <c r="BO52" s="65">
+      <c r="BO52" s="59">
         <v>0</v>
       </c>
       <c r="BP52" s="11">
@@ -14488,13 +14488,13 @@
       <c r="BV52" s="12">
         <v>0</v>
       </c>
-      <c r="BW52" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX52" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY52" s="78">
+      <c r="BW52" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX52" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY52" s="72">
         <v>0</v>
       </c>
       <c r="BZ52" s="48">
@@ -14646,7 +14646,7 @@
       <c r="AR53" s="44">
         <v>4.97</v>
       </c>
-      <c r="AS53" s="65">
+      <c r="AS53" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT53" s="11">
@@ -14670,19 +14670,19 @@
       <c r="AZ53" s="12">
         <v>0</v>
       </c>
-      <c r="BA53" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC53" s="78">
+      <c r="BA53" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="72">
         <v>0</v>
       </c>
       <c r="BD53" s="10">
         <v>0</v>
       </c>
-      <c r="BE53" s="72">
+      <c r="BE53" s="66">
         <v>0</v>
       </c>
       <c r="BF53" s="39">
@@ -14712,7 +14712,7 @@
       <c r="BN53" s="44">
         <v>0</v>
       </c>
-      <c r="BO53" s="65">
+      <c r="BO53" s="59">
         <v>0</v>
       </c>
       <c r="BP53" s="11">
@@ -14736,13 +14736,13 @@
       <c r="BV53" s="12">
         <v>0</v>
       </c>
-      <c r="BW53" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX53" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY53" s="78">
+      <c r="BW53" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX53" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY53" s="72">
         <v>0</v>
       </c>
       <c r="BZ53" s="48">
@@ -14894,7 +14894,7 @@
       <c r="AR54" s="44">
         <v>4.38</v>
       </c>
-      <c r="AS54" s="65">
+      <c r="AS54" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT54" s="11">
@@ -14918,19 +14918,19 @@
       <c r="AZ54" s="12">
         <v>0</v>
       </c>
-      <c r="BA54" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB54" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC54" s="78">
+      <c r="BA54" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC54" s="72">
         <v>0</v>
       </c>
       <c r="BD54" s="10">
         <v>0</v>
       </c>
-      <c r="BE54" s="72">
+      <c r="BE54" s="66">
         <v>0</v>
       </c>
       <c r="BF54" s="39">
@@ -14960,7 +14960,7 @@
       <c r="BN54" s="44">
         <v>0</v>
       </c>
-      <c r="BO54" s="65">
+      <c r="BO54" s="59">
         <v>0</v>
       </c>
       <c r="BP54" s="11">
@@ -14984,13 +14984,13 @@
       <c r="BV54" s="12">
         <v>0</v>
       </c>
-      <c r="BW54" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX54" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY54" s="78">
+      <c r="BW54" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX54" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY54" s="72">
         <v>0</v>
       </c>
       <c r="BZ54" s="48">
@@ -15142,7 +15142,7 @@
       <c r="AR55" s="44">
         <v>4.38</v>
       </c>
-      <c r="AS55" s="65">
+      <c r="AS55" s="59">
         <v>17.100000000000001</v>
       </c>
       <c r="AT55" s="11">
@@ -15166,19 +15166,19 @@
       <c r="AZ55" s="12">
         <v>0</v>
       </c>
-      <c r="BA55" s="78">
-        <v>0</v>
-      </c>
-      <c r="BB55" s="78">
-        <v>0</v>
-      </c>
-      <c r="BC55" s="78">
+      <c r="BA55" s="72">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="72">
+        <v>0</v>
+      </c>
+      <c r="BC55" s="72">
         <v>0</v>
       </c>
       <c r="BD55" s="10">
         <v>0</v>
       </c>
-      <c r="BE55" s="72">
+      <c r="BE55" s="66">
         <v>0</v>
       </c>
       <c r="BF55" s="39">
@@ -15208,7 +15208,7 @@
       <c r="BN55" s="44">
         <v>0</v>
       </c>
-      <c r="BO55" s="65">
+      <c r="BO55" s="59">
         <v>0</v>
       </c>
       <c r="BP55" s="11">
@@ -15232,13 +15232,13 @@
       <c r="BV55" s="12">
         <v>0</v>
       </c>
-      <c r="BW55" s="78">
-        <v>0</v>
-      </c>
-      <c r="BX55" s="78">
-        <v>0</v>
-      </c>
-      <c r="BY55" s="78">
+      <c r="BW55" s="72">
+        <v>0</v>
+      </c>
+      <c r="BX55" s="72">
+        <v>0</v>
+      </c>
+      <c r="BY55" s="72">
         <v>0</v>
       </c>
       <c r="BZ55" s="48">
@@ -15390,7 +15390,7 @@
       <c r="AR56" s="2">
         <v>4.49</v>
       </c>
-      <c r="AS56" s="66">
+      <c r="AS56" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT56" s="8">
@@ -15426,7 +15426,7 @@
       <c r="BD56" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE56" s="73">
+      <c r="BE56" s="67">
         <v>0</v>
       </c>
       <c r="BF56" s="9">
@@ -15638,7 +15638,7 @@
       <c r="AR57" s="2">
         <v>12.87</v>
       </c>
-      <c r="AS57" s="66">
+      <c r="AS57" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT57" s="8">
@@ -15674,7 +15674,7 @@
       <c r="BD57" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE57" s="73">
+      <c r="BE57" s="67">
         <v>0</v>
       </c>
       <c r="BF57" s="9">
@@ -15886,7 +15886,7 @@
       <c r="AR58" s="2">
         <v>3.23</v>
       </c>
-      <c r="AS58" s="66">
+      <c r="AS58" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT58" s="8">
@@ -15922,7 +15922,7 @@
       <c r="BD58" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE58" s="73">
+      <c r="BE58" s="67">
         <v>0</v>
       </c>
       <c r="BF58" s="9">
@@ -16134,7 +16134,7 @@
       <c r="AR59" s="2">
         <v>5.4</v>
       </c>
-      <c r="AS59" s="66">
+      <c r="AS59" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT59" s="8">
@@ -16170,7 +16170,7 @@
       <c r="BD59" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE59" s="73">
+      <c r="BE59" s="67">
         <v>0</v>
       </c>
       <c r="BF59" s="9">
@@ -16382,7 +16382,7 @@
       <c r="AR60" s="2">
         <v>3.26</v>
       </c>
-      <c r="AS60" s="66">
+      <c r="AS60" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT60" s="8">
@@ -16418,7 +16418,7 @@
       <c r="BD60" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE60" s="73">
+      <c r="BE60" s="67">
         <v>0</v>
       </c>
       <c r="BF60" s="9">
@@ -16630,7 +16630,7 @@
       <c r="AR61" s="2">
         <v>2.27</v>
       </c>
-      <c r="AS61" s="66">
+      <c r="AS61" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT61" s="8">
@@ -16666,7 +16666,7 @@
       <c r="BD61" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE61" s="73">
+      <c r="BE61" s="67">
         <v>0</v>
       </c>
       <c r="BF61" s="9">
@@ -16878,7 +16878,7 @@
       <c r="AR62" s="2">
         <v>2.87</v>
       </c>
-      <c r="AS62" s="66">
+      <c r="AS62" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT62" s="8">
@@ -16914,7 +16914,7 @@
       <c r="BD62" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE62" s="73">
+      <c r="BE62" s="67">
         <v>0</v>
       </c>
       <c r="BF62" s="9">
@@ -17126,7 +17126,7 @@
       <c r="AR63" s="2">
         <v>2.71</v>
       </c>
-      <c r="AS63" s="66">
+      <c r="AS63" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT63" s="8">
@@ -17162,7 +17162,7 @@
       <c r="BD63" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE63" s="73">
+      <c r="BE63" s="67">
         <v>0</v>
       </c>
       <c r="BF63" s="9">
@@ -17374,7 +17374,7 @@
       <c r="AR64" s="2">
         <v>3.1</v>
       </c>
-      <c r="AS64" s="66">
+      <c r="AS64" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT64" s="8">
@@ -17410,7 +17410,7 @@
       <c r="BD64" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE64" s="73">
+      <c r="BE64" s="67">
         <v>0</v>
       </c>
       <c r="BF64" s="9">
@@ -17622,7 +17622,7 @@
       <c r="AR65" s="2">
         <v>13.78</v>
       </c>
-      <c r="AS65" s="66">
+      <c r="AS65" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT65" s="8">
@@ -17658,7 +17658,7 @@
       <c r="BD65" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE65" s="73">
+      <c r="BE65" s="67">
         <v>0</v>
       </c>
       <c r="BF65" s="9">
@@ -17870,7 +17870,7 @@
       <c r="AR66" s="2">
         <v>20.78</v>
       </c>
-      <c r="AS66" s="66">
+      <c r="AS66" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT66" s="8">
@@ -17906,7 +17906,7 @@
       <c r="BD66" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE66" s="73">
+      <c r="BE66" s="67">
         <v>0</v>
       </c>
       <c r="BF66" s="9">
@@ -18118,7 +18118,7 @@
       <c r="AR67" s="2">
         <v>5.16</v>
       </c>
-      <c r="AS67" s="66">
+      <c r="AS67" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT67" s="8">
@@ -18154,7 +18154,7 @@
       <c r="BD67" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE67" s="73">
+      <c r="BE67" s="67">
         <v>0</v>
       </c>
       <c r="BF67" s="9">
@@ -18366,7 +18366,7 @@
       <c r="AR68" s="2">
         <v>12.67</v>
       </c>
-      <c r="AS68" s="66">
+      <c r="AS68" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT68" s="8">
@@ -18402,7 +18402,7 @@
       <c r="BD68" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE68" s="73">
+      <c r="BE68" s="67">
         <v>0</v>
       </c>
       <c r="BF68" s="9">
@@ -18614,7 +18614,7 @@
       <c r="AR69" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="AS69" s="66">
+      <c r="AS69" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT69" s="8">
@@ -18650,7 +18650,7 @@
       <c r="BD69" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE69" s="73">
+      <c r="BE69" s="67">
         <v>0</v>
       </c>
       <c r="BF69" s="9">
@@ -18862,7 +18862,7 @@
       <c r="AR70" s="2">
         <v>10.37</v>
       </c>
-      <c r="AS70" s="66">
+      <c r="AS70" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT70" s="8">
@@ -18898,7 +18898,7 @@
       <c r="BD70" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE70" s="73">
+      <c r="BE70" s="67">
         <v>0</v>
       </c>
       <c r="BF70" s="9">
@@ -19110,7 +19110,7 @@
       <c r="AR71" s="2">
         <v>12.94</v>
       </c>
-      <c r="AS71" s="66">
+      <c r="AS71" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT71" s="8">
@@ -19146,7 +19146,7 @@
       <c r="BD71" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE71" s="73">
+      <c r="BE71" s="67">
         <v>0</v>
       </c>
       <c r="BF71" s="9">
@@ -19358,7 +19358,7 @@
       <c r="AR72" s="2">
         <v>4.04</v>
       </c>
-      <c r="AS72" s="66">
+      <c r="AS72" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT72" s="8">
@@ -19394,7 +19394,7 @@
       <c r="BD72" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE72" s="73">
+      <c r="BE72" s="67">
         <v>0</v>
       </c>
       <c r="BF72" s="9">
@@ -19606,7 +19606,7 @@
       <c r="AR73" s="2">
         <v>4.97</v>
       </c>
-      <c r="AS73" s="66">
+      <c r="AS73" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT73" s="8">
@@ -19642,7 +19642,7 @@
       <c r="BD73" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE73" s="73">
+      <c r="BE73" s="67">
         <v>0</v>
       </c>
       <c r="BF73" s="9">
@@ -19854,7 +19854,7 @@
       <c r="AR74" s="2">
         <v>14.63</v>
       </c>
-      <c r="AS74" s="66">
+      <c r="AS74" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT74" s="8">
@@ -19890,7 +19890,7 @@
       <c r="BD74" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE74" s="73">
+      <c r="BE74" s="67">
         <v>0</v>
       </c>
       <c r="BF74" s="9">
@@ -20102,7 +20102,7 @@
       <c r="AR75" s="2">
         <v>14.79</v>
       </c>
-      <c r="AS75" s="66">
+      <c r="AS75" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT75" s="8">
@@ -20138,7 +20138,7 @@
       <c r="BD75" s="47">
         <v>2.8</v>
       </c>
-      <c r="BE75" s="73">
+      <c r="BE75" s="67">
         <v>0</v>
       </c>
       <c r="BF75" s="9">
@@ -20350,7 +20350,7 @@
       <c r="AR76" s="21">
         <v>0</v>
       </c>
-      <c r="AS76" s="67">
+      <c r="AS76" s="61">
         <v>0</v>
       </c>
       <c r="AT76" s="11">
@@ -20386,7 +20386,7 @@
       <c r="BD76" s="48">
         <v>2.8</v>
       </c>
-      <c r="BE76" s="74">
+      <c r="BE76" s="68">
         <v>28.239940840170267</v>
       </c>
       <c r="BF76" s="12">
@@ -20598,7 +20598,7 @@
       <c r="AR77" s="21">
         <v>0</v>
       </c>
-      <c r="AS77" s="67">
+      <c r="AS77" s="61">
         <v>0</v>
       </c>
       <c r="AT77" s="11">
@@ -20634,7 +20634,7 @@
       <c r="BD77" s="48">
         <v>2.8</v>
       </c>
-      <c r="BE77" s="74">
+      <c r="BE77" s="68">
         <v>28.960051895990034</v>
       </c>
       <c r="BF77" s="12">
@@ -20846,7 +20846,7 @@
       <c r="AR78" s="21">
         <v>0</v>
       </c>
-      <c r="AS78" s="67">
+      <c r="AS78" s="61">
         <v>0</v>
       </c>
       <c r="AT78" s="11">
@@ -20882,7 +20882,7 @@
       <c r="BD78" s="48">
         <v>2.8</v>
       </c>
-      <c r="BE78" s="74">
+      <c r="BE78" s="68">
         <v>28.412807609885895</v>
       </c>
       <c r="BF78" s="12">
@@ -21094,7 +21094,7 @@
       <c r="AR79" s="14">
         <v>6.09</v>
       </c>
-      <c r="AS79" s="66">
+      <c r="AS79" s="60">
         <v>17.100000000000001</v>
       </c>
       <c r="AT79" s="8">
@@ -21130,7 +21130,7 @@
       <c r="BD79" s="3">
         <v>2.8</v>
       </c>
-      <c r="BE79" s="73">
+      <c r="BE79" s="67">
         <v>0</v>
       </c>
       <c r="BF79" s="9">
@@ -21342,7 +21342,7 @@
       <c r="AR80" s="13">
         <v>5.0599999999999996</v>
       </c>
-      <c r="AS80" s="68">
+      <c r="AS80" s="62">
         <v>7.8</v>
       </c>
       <c r="AT80" s="11">
@@ -21378,7 +21378,7 @@
       <c r="BD80" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE80" s="74">
+      <c r="BE80" s="68">
         <v>0</v>
       </c>
       <c r="BF80" s="12">
@@ -21590,7 +21590,7 @@
       <c r="AR81" s="13">
         <v>6.56</v>
       </c>
-      <c r="AS81" s="68">
+      <c r="AS81" s="62">
         <v>7.8</v>
       </c>
       <c r="AT81" s="11">
@@ -21626,7 +21626,7 @@
       <c r="BD81" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE81" s="74">
+      <c r="BE81" s="68">
         <v>0</v>
       </c>
       <c r="BF81" s="12">
@@ -21838,7 +21838,7 @@
       <c r="AR82" s="13">
         <v>6.16</v>
       </c>
-      <c r="AS82" s="68">
+      <c r="AS82" s="62">
         <v>7.8</v>
       </c>
       <c r="AT82" s="11">
@@ -21874,7 +21874,7 @@
       <c r="BD82" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE82" s="74">
+      <c r="BE82" s="68">
         <v>0</v>
       </c>
       <c r="BF82" s="12">
@@ -22086,7 +22086,7 @@
       <c r="AR83" s="13">
         <v>4.8499999999999996</v>
       </c>
-      <c r="AS83" s="68">
+      <c r="AS83" s="62">
         <v>7.8</v>
       </c>
       <c r="AT83" s="11">
@@ -22122,7 +22122,7 @@
       <c r="BD83" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE83" s="74">
+      <c r="BE83" s="68">
         <v>0</v>
       </c>
       <c r="BF83" s="12">
@@ -22334,7 +22334,7 @@
       <c r="AR84" s="13">
         <v>3.58</v>
       </c>
-      <c r="AS84" s="68">
+      <c r="AS84" s="62">
         <v>7.8</v>
       </c>
       <c r="AT84" s="11">
@@ -22370,7 +22370,7 @@
       <c r="BD84" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE84" s="74">
+      <c r="BE84" s="68">
         <v>0</v>
       </c>
       <c r="BF84" s="12">
@@ -22582,7 +22582,7 @@
       <c r="AR85" s="13">
         <v>4.8899999999999997</v>
       </c>
-      <c r="AS85" s="68">
+      <c r="AS85" s="62">
         <v>7.8</v>
       </c>
       <c r="AT85" s="11">
@@ -22618,7 +22618,7 @@
       <c r="BD85" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE85" s="74">
+      <c r="BE85" s="68">
         <v>0</v>
       </c>
       <c r="BF85" s="12">
@@ -22830,7 +22830,7 @@
       <c r="AR86" s="13">
         <v>7.85</v>
       </c>
-      <c r="AS86" s="68">
+      <c r="AS86" s="62">
         <v>7.8</v>
       </c>
       <c r="AT86" s="11">
@@ -22866,7 +22866,7 @@
       <c r="BD86" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE86" s="74">
+      <c r="BE86" s="68">
         <v>0</v>
       </c>
       <c r="BF86" s="12">
@@ -23078,7 +23078,7 @@
       <c r="AR87" s="13">
         <v>4.3</v>
       </c>
-      <c r="AS87" s="68">
+      <c r="AS87" s="62">
         <v>7.8</v>
       </c>
       <c r="AT87" s="11">
@@ -23114,7 +23114,7 @@
       <c r="BD87" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE87" s="74">
+      <c r="BE87" s="68">
         <v>0</v>
       </c>
       <c r="BF87" s="12">
@@ -23326,7 +23326,7 @@
       <c r="AR88" s="13">
         <v>12.98</v>
       </c>
-      <c r="AS88" s="68">
+      <c r="AS88" s="62">
         <v>7.8</v>
       </c>
       <c r="AT88" s="11">
@@ -23362,7 +23362,7 @@
       <c r="BD88" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE88" s="74">
+      <c r="BE88" s="68">
         <v>0</v>
       </c>
       <c r="BF88" s="12">
@@ -23574,7 +23574,7 @@
       <c r="AR89" s="13">
         <v>9.1300000000000008</v>
       </c>
-      <c r="AS89" s="68">
+      <c r="AS89" s="62">
         <v>7.8</v>
       </c>
       <c r="AT89" s="11">
@@ -23610,7 +23610,7 @@
       <c r="BD89" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE89" s="74">
+      <c r="BE89" s="68">
         <v>0</v>
       </c>
       <c r="BF89" s="12">
@@ -23822,7 +23822,7 @@
       <c r="AR90" s="13">
         <v>3.44</v>
       </c>
-      <c r="AS90" s="68">
+      <c r="AS90" s="62">
         <v>7.8</v>
       </c>
       <c r="AT90" s="11">
@@ -23858,7 +23858,7 @@
       <c r="BD90" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE90" s="74">
+      <c r="BE90" s="68">
         <v>0</v>
       </c>
       <c r="BF90" s="12">
@@ -24070,7 +24070,7 @@
       <c r="AR91" s="13">
         <v>4.3899999999999997</v>
       </c>
-      <c r="AS91" s="68">
+      <c r="AS91" s="62">
         <v>7.8</v>
       </c>
       <c r="AT91" s="11">
@@ -24106,7 +24106,7 @@
       <c r="BD91" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE91" s="74">
+      <c r="BE91" s="68">
         <v>0</v>
       </c>
       <c r="BF91" s="12">
@@ -24318,7 +24318,7 @@
       <c r="AR92" s="13">
         <v>7.08</v>
       </c>
-      <c r="AS92" s="68">
+      <c r="AS92" s="62">
         <v>7.8</v>
       </c>
       <c r="AT92" s="11">
@@ -24354,7 +24354,7 @@
       <c r="BD92" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE92" s="74">
+      <c r="BE92" s="68">
         <v>0</v>
       </c>
       <c r="BF92" s="12">
@@ -24566,7 +24566,7 @@
       <c r="AR93" s="13">
         <v>10.199999999999999</v>
       </c>
-      <c r="AS93" s="68">
+      <c r="AS93" s="62">
         <v>7.8</v>
       </c>
       <c r="AT93" s="11">
@@ -24602,7 +24602,7 @@
       <c r="BD93" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE93" s="74">
+      <c r="BE93" s="68">
         <v>0</v>
       </c>
       <c r="BF93" s="12">
@@ -24814,7 +24814,7 @@
       <c r="AR94" s="13">
         <v>3.57</v>
       </c>
-      <c r="AS94" s="68">
+      <c r="AS94" s="62">
         <v>7.8</v>
       </c>
       <c r="AT94" s="11">
@@ -24850,7 +24850,7 @@
       <c r="BD94" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE94" s="74">
+      <c r="BE94" s="68">
         <v>0</v>
       </c>
       <c r="BF94" s="12">
@@ -25062,7 +25062,7 @@
       <c r="AR95" s="13">
         <v>10.73</v>
       </c>
-      <c r="AS95" s="68">
+      <c r="AS95" s="62">
         <v>7.8</v>
       </c>
       <c r="AT95" s="11">
@@ -25098,7 +25098,7 @@
       <c r="BD95" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE95" s="74">
+      <c r="BE95" s="68">
         <v>0</v>
       </c>
       <c r="BF95" s="12">
@@ -25310,7 +25310,7 @@
       <c r="AR96" s="13">
         <v>3.93</v>
       </c>
-      <c r="AS96" s="68">
+      <c r="AS96" s="62">
         <v>7.8</v>
       </c>
       <c r="AT96" s="11">
@@ -25346,7 +25346,7 @@
       <c r="BD96" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE96" s="74">
+      <c r="BE96" s="68">
         <v>0</v>
       </c>
       <c r="BF96" s="12">
@@ -25558,7 +25558,7 @@
       <c r="AR97" s="13">
         <v>5.47</v>
       </c>
-      <c r="AS97" s="68">
+      <c r="AS97" s="62">
         <v>7.8</v>
       </c>
       <c r="AT97" s="11">
@@ -25594,7 +25594,7 @@
       <c r="BD97" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE97" s="74">
+      <c r="BE97" s="68">
         <v>0</v>
       </c>
       <c r="BF97" s="12">
@@ -25806,7 +25806,7 @@
       <c r="AR98" s="13">
         <v>3.3</v>
       </c>
-      <c r="AS98" s="68">
+      <c r="AS98" s="62">
         <v>7.8</v>
       </c>
       <c r="AT98" s="11">
@@ -25842,7 +25842,7 @@
       <c r="BD98" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE98" s="74">
+      <c r="BE98" s="68">
         <v>0</v>
       </c>
       <c r="BF98" s="12">
@@ -26054,7 +26054,7 @@
       <c r="AR99" s="13">
         <v>15.71</v>
       </c>
-      <c r="AS99" s="68">
+      <c r="AS99" s="62">
         <v>7.8</v>
       </c>
       <c r="AT99" s="11">
@@ -26090,7 +26090,7 @@
       <c r="BD99" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE99" s="74">
+      <c r="BE99" s="68">
         <v>0</v>
       </c>
       <c r="BF99" s="12">
@@ -26302,7 +26302,7 @@
       <c r="AR100" s="13">
         <v>6.24</v>
       </c>
-      <c r="AS100" s="68">
+      <c r="AS100" s="62">
         <v>7.8</v>
       </c>
       <c r="AT100" s="11">
@@ -26338,7 +26338,7 @@
       <c r="BD100" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE100" s="74">
+      <c r="BE100" s="68">
         <v>0</v>
       </c>
       <c r="BF100" s="12">
@@ -26550,7 +26550,7 @@
       <c r="AR101" s="13">
         <v>7.32</v>
       </c>
-      <c r="AS101" s="68">
+      <c r="AS101" s="62">
         <v>7.8</v>
       </c>
       <c r="AT101" s="11">
@@ -26586,7 +26586,7 @@
       <c r="BD101" s="10">
         <v>2.6</v>
       </c>
-      <c r="BE101" s="74">
+      <c r="BE101" s="68">
         <v>0</v>
       </c>
       <c r="BF101" s="12">
@@ -26798,7 +26798,7 @@
       <c r="AR102" s="31">
         <v>0</v>
       </c>
-      <c r="AS102" s="69">
+      <c r="AS102" s="63">
         <v>0</v>
       </c>
       <c r="AT102" s="8">
@@ -26834,7 +26834,7 @@
       <c r="BD102" s="47">
         <v>0</v>
       </c>
-      <c r="BE102" s="73">
+      <c r="BE102" s="67">
         <v>0</v>
       </c>
       <c r="BF102" s="9">
@@ -26864,7 +26864,7 @@
       <c r="BN102" s="31">
         <v>0</v>
       </c>
-      <c r="BO102" s="69">
+      <c r="BO102" s="63">
         <v>0</v>
       </c>
       <c r="BP102" s="36">
@@ -27046,7 +27046,7 @@
       <c r="AR103" s="31">
         <v>0</v>
       </c>
-      <c r="AS103" s="69">
+      <c r="AS103" s="63">
         <v>0</v>
       </c>
       <c r="AT103" s="8">
@@ -27082,7 +27082,7 @@
       <c r="BD103" s="47">
         <v>0</v>
       </c>
-      <c r="BE103" s="73">
+      <c r="BE103" s="67">
         <v>0</v>
       </c>
       <c r="BF103" s="9">
@@ -27112,7 +27112,7 @@
       <c r="BN103" s="31">
         <v>0</v>
       </c>
-      <c r="BO103" s="69">
+      <c r="BO103" s="63">
         <v>0</v>
       </c>
       <c r="BP103" s="36">
@@ -27294,7 +27294,7 @@
       <c r="AR104" s="31">
         <v>0</v>
       </c>
-      <c r="AS104" s="69">
+      <c r="AS104" s="63">
         <v>0</v>
       </c>
       <c r="AT104" s="8">
@@ -27330,7 +27330,7 @@
       <c r="BD104" s="47">
         <v>0</v>
       </c>
-      <c r="BE104" s="73">
+      <c r="BE104" s="67">
         <v>0</v>
       </c>
       <c r="BF104" s="9">
@@ -27360,7 +27360,7 @@
       <c r="BN104" s="31">
         <v>0</v>
       </c>
-      <c r="BO104" s="69">
+      <c r="BO104" s="63">
         <v>0</v>
       </c>
       <c r="BP104" s="36">
@@ -27542,7 +27542,7 @@
       <c r="AR105" s="31">
         <v>0</v>
       </c>
-      <c r="AS105" s="69">
+      <c r="AS105" s="63">
         <v>0</v>
       </c>
       <c r="AT105" s="8">
@@ -27578,7 +27578,7 @@
       <c r="BD105" s="47">
         <v>0</v>
       </c>
-      <c r="BE105" s="73">
+      <c r="BE105" s="67">
         <v>0</v>
       </c>
       <c r="BF105" s="9">
@@ -27608,7 +27608,7 @@
       <c r="BN105" s="31">
         <v>0</v>
       </c>
-      <c r="BO105" s="69">
+      <c r="BO105" s="63">
         <v>0</v>
       </c>
       <c r="BP105" s="36">
@@ -27790,7 +27790,7 @@
       <c r="AR106" s="31">
         <v>0</v>
       </c>
-      <c r="AS106" s="69">
+      <c r="AS106" s="63">
         <v>0</v>
       </c>
       <c r="AT106" s="8">
@@ -27826,7 +27826,7 @@
       <c r="BD106" s="47">
         <v>0</v>
       </c>
-      <c r="BE106" s="73">
+      <c r="BE106" s="67">
         <v>0</v>
       </c>
       <c r="BF106" s="9">
@@ -27856,7 +27856,7 @@
       <c r="BN106" s="31">
         <v>0</v>
       </c>
-      <c r="BO106" s="69">
+      <c r="BO106" s="63">
         <v>0</v>
       </c>
       <c r="BP106" s="36">
@@ -28038,7 +28038,7 @@
       <c r="AR107" s="31">
         <v>0</v>
       </c>
-      <c r="AS107" s="69">
+      <c r="AS107" s="63">
         <v>0</v>
       </c>
       <c r="AT107" s="8">
@@ -28074,7 +28074,7 @@
       <c r="BD107" s="47">
         <v>0</v>
       </c>
-      <c r="BE107" s="73">
+      <c r="BE107" s="67">
         <v>0</v>
       </c>
       <c r="BF107" s="9">
@@ -28104,7 +28104,7 @@
       <c r="BN107" s="31">
         <v>0</v>
       </c>
-      <c r="BO107" s="69">
+      <c r="BO107" s="63">
         <v>0</v>
       </c>
       <c r="BP107" s="36">
@@ -28286,7 +28286,7 @@
       <c r="AR108" s="31">
         <v>0</v>
       </c>
-      <c r="AS108" s="69">
+      <c r="AS108" s="63">
         <v>0</v>
       </c>
       <c r="AT108" s="8">
@@ -28322,7 +28322,7 @@
       <c r="BD108" s="47">
         <v>0</v>
       </c>
-      <c r="BE108" s="73">
+      <c r="BE108" s="67">
         <v>0</v>
       </c>
       <c r="BF108" s="9">
@@ -28352,7 +28352,7 @@
       <c r="BN108" s="31">
         <v>0</v>
       </c>
-      <c r="BO108" s="69">
+      <c r="BO108" s="63">
         <v>0</v>
       </c>
       <c r="BP108" s="36">
@@ -28534,7 +28534,7 @@
       <c r="AR109" s="31">
         <v>0</v>
       </c>
-      <c r="AS109" s="69">
+      <c r="AS109" s="63">
         <v>0</v>
       </c>
       <c r="AT109" s="8">
@@ -28570,7 +28570,7 @@
       <c r="BD109" s="47">
         <v>0</v>
       </c>
-      <c r="BE109" s="73">
+      <c r="BE109" s="67">
         <v>0</v>
       </c>
       <c r="BF109" s="9">
@@ -28600,7 +28600,7 @@
       <c r="BN109" s="31">
         <v>0</v>
       </c>
-      <c r="BO109" s="69">
+      <c r="BO109" s="63">
         <v>0</v>
       </c>
       <c r="BP109" s="36">
@@ -28782,7 +28782,7 @@
       <c r="AR110" s="31">
         <v>0</v>
       </c>
-      <c r="AS110" s="69">
+      <c r="AS110" s="63">
         <v>0</v>
       </c>
       <c r="AT110" s="8">
@@ -28818,7 +28818,7 @@
       <c r="BD110" s="47">
         <v>0</v>
       </c>
-      <c r="BE110" s="73">
+      <c r="BE110" s="67">
         <v>0</v>
       </c>
       <c r="BF110" s="9">
@@ -28848,7 +28848,7 @@
       <c r="BN110" s="31">
         <v>0</v>
       </c>
-      <c r="BO110" s="69">
+      <c r="BO110" s="63">
         <v>0</v>
       </c>
       <c r="BP110" s="36">
@@ -29030,7 +29030,7 @@
       <c r="AR111" s="31">
         <v>0</v>
       </c>
-      <c r="AS111" s="69">
+      <c r="AS111" s="63">
         <v>0</v>
       </c>
       <c r="AT111" s="8">
@@ -29066,7 +29066,7 @@
       <c r="BD111" s="47">
         <v>0</v>
       </c>
-      <c r="BE111" s="73">
+      <c r="BE111" s="67">
         <v>0</v>
       </c>
       <c r="BF111" s="9">
@@ -29096,7 +29096,7 @@
       <c r="BN111" s="31">
         <v>0</v>
       </c>
-      <c r="BO111" s="69">
+      <c r="BO111" s="63">
         <v>0</v>
       </c>
       <c r="BP111" s="36">
@@ -29278,7 +29278,7 @@
       <c r="AR112" s="31">
         <v>0</v>
       </c>
-      <c r="AS112" s="69">
+      <c r="AS112" s="63">
         <v>0</v>
       </c>
       <c r="AT112" s="8">
@@ -29314,7 +29314,7 @@
       <c r="BD112" s="47">
         <v>0</v>
       </c>
-      <c r="BE112" s="73">
+      <c r="BE112" s="67">
         <v>0</v>
       </c>
       <c r="BF112" s="9">
@@ -29344,7 +29344,7 @@
       <c r="BN112" s="31">
         <v>0</v>
       </c>
-      <c r="BO112" s="69">
+      <c r="BO112" s="63">
         <v>0</v>
       </c>
       <c r="BP112" s="36">
@@ -29526,7 +29526,7 @@
       <c r="AR113" s="31">
         <v>0</v>
       </c>
-      <c r="AS113" s="69">
+      <c r="AS113" s="63">
         <v>0</v>
       </c>
       <c r="AT113" s="8">
@@ -29562,7 +29562,7 @@
       <c r="BD113" s="47">
         <v>0</v>
       </c>
-      <c r="BE113" s="73">
+      <c r="BE113" s="67">
         <v>0</v>
       </c>
       <c r="BF113" s="9">
@@ -29592,7 +29592,7 @@
       <c r="BN113" s="31">
         <v>0</v>
       </c>
-      <c r="BO113" s="69">
+      <c r="BO113" s="63">
         <v>0</v>
       </c>
       <c r="BP113" s="36">
@@ -29774,7 +29774,7 @@
       <c r="AR114" s="31">
         <v>0</v>
       </c>
-      <c r="AS114" s="69">
+      <c r="AS114" s="63">
         <v>0</v>
       </c>
       <c r="AT114" s="8">
@@ -29810,7 +29810,7 @@
       <c r="BD114" s="47">
         <v>0</v>
       </c>
-      <c r="BE114" s="73">
+      <c r="BE114" s="67">
         <v>0</v>
       </c>
       <c r="BF114" s="9">
@@ -29840,7 +29840,7 @@
       <c r="BN114" s="31">
         <v>0</v>
       </c>
-      <c r="BO114" s="69">
+      <c r="BO114" s="63">
         <v>0</v>
       </c>
       <c r="BP114" s="36">
@@ -30022,7 +30022,7 @@
       <c r="AR115" s="31">
         <v>0</v>
       </c>
-      <c r="AS115" s="69">
+      <c r="AS115" s="63">
         <v>0</v>
       </c>
       <c r="AT115" s="8">
@@ -30058,7 +30058,7 @@
       <c r="BD115" s="47">
         <v>0</v>
       </c>
-      <c r="BE115" s="73">
+      <c r="BE115" s="67">
         <v>0</v>
       </c>
       <c r="BF115" s="9">
@@ -30088,7 +30088,7 @@
       <c r="BN115" s="31">
         <v>0</v>
       </c>
-      <c r="BO115" s="69">
+      <c r="BO115" s="63">
         <v>0</v>
       </c>
       <c r="BP115" s="36">
@@ -30270,7 +30270,7 @@
       <c r="AR116" s="31">
         <v>0</v>
       </c>
-      <c r="AS116" s="69">
+      <c r="AS116" s="63">
         <v>0</v>
       </c>
       <c r="AT116" s="8">
@@ -30306,7 +30306,7 @@
       <c r="BD116" s="47">
         <v>0</v>
       </c>
-      <c r="BE116" s="73">
+      <c r="BE116" s="67">
         <v>0</v>
       </c>
       <c r="BF116" s="9">
@@ -30336,7 +30336,7 @@
       <c r="BN116" s="31">
         <v>0</v>
       </c>
-      <c r="BO116" s="69">
+      <c r="BO116" s="63">
         <v>0</v>
       </c>
       <c r="BP116" s="36">
@@ -30518,7 +30518,7 @@
       <c r="AR117" s="17">
         <v>0</v>
       </c>
-      <c r="AS117" s="70">
+      <c r="AS117" s="64">
         <v>0</v>
       </c>
       <c r="AT117" s="15">
@@ -30551,10 +30551,10 @@
       <c r="BC117" s="17">
         <v>0</v>
       </c>
-      <c r="BD117" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE117" s="74">
+      <c r="BD117" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE117" s="68">
         <v>25.995532188801384</v>
       </c>
       <c r="BF117" s="12">
@@ -30766,7 +30766,7 @@
       <c r="AR118" s="17">
         <v>0</v>
       </c>
-      <c r="AS118" s="70">
+      <c r="AS118" s="64">
         <v>0</v>
       </c>
       <c r="AT118" s="15">
@@ -30799,10 +30799,10 @@
       <c r="BC118" s="17">
         <v>0</v>
       </c>
-      <c r="BD118" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE118" s="74">
+      <c r="BD118" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE118" s="68">
         <v>25.995532188801384</v>
       </c>
       <c r="BF118" s="12">
@@ -31014,7 +31014,7 @@
       <c r="AR119" s="17">
         <v>0</v>
       </c>
-      <c r="AS119" s="70">
+      <c r="AS119" s="64">
         <v>0</v>
       </c>
       <c r="AT119" s="15">
@@ -31047,10 +31047,10 @@
       <c r="BC119" s="17">
         <v>0</v>
       </c>
-      <c r="BD119" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE119" s="74">
+      <c r="BD119" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE119" s="68">
         <v>25.203345563709135</v>
       </c>
       <c r="BF119" s="12">
@@ -31262,7 +31262,7 @@
       <c r="AR120" s="17">
         <v>0</v>
       </c>
-      <c r="AS120" s="70">
+      <c r="AS120" s="64">
         <v>0</v>
       </c>
       <c r="AT120" s="15">
@@ -31295,10 +31295,10 @@
       <c r="BC120" s="17">
         <v>0</v>
       </c>
-      <c r="BD120" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE120" s="74">
+      <c r="BD120" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE120" s="68">
         <v>25.203345563709135</v>
       </c>
       <c r="BF120" s="12">
@@ -31510,7 +31510,7 @@
       <c r="AR121" s="17">
         <v>0</v>
       </c>
-      <c r="AS121" s="70">
+      <c r="AS121" s="64">
         <v>0</v>
       </c>
       <c r="AT121" s="15">
@@ -31543,10 +31543,10 @@
       <c r="BC121" s="17">
         <v>0</v>
       </c>
-      <c r="BD121" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE121" s="74">
+      <c r="BD121" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE121" s="68">
         <v>25.203345563709135</v>
       </c>
       <c r="BF121" s="12">
@@ -31758,7 +31758,7 @@
       <c r="AR122" s="17">
         <v>0</v>
       </c>
-      <c r="AS122" s="70">
+      <c r="AS122" s="64">
         <v>0</v>
       </c>
       <c r="AT122" s="15">
@@ -31791,10 +31791,10 @@
       <c r="BC122" s="17">
         <v>0</v>
       </c>
-      <c r="BD122" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE122" s="74">
+      <c r="BD122" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE122" s="68">
         <v>26.585578133609957</v>
       </c>
       <c r="BF122" s="12">
@@ -32006,7 +32006,7 @@
       <c r="AR123" s="17">
         <v>0</v>
       </c>
-      <c r="AS123" s="70">
+      <c r="AS123" s="64">
         <v>0</v>
       </c>
       <c r="AT123" s="15">
@@ -32039,10 +32039,10 @@
       <c r="BC123" s="17">
         <v>0</v>
       </c>
-      <c r="BD123" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE123" s="74">
+      <c r="BD123" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE123" s="68">
         <v>26.585578133609957</v>
       </c>
       <c r="BF123" s="12">
@@ -32254,7 +32254,7 @@
       <c r="AR124" s="17">
         <v>0</v>
       </c>
-      <c r="AS124" s="70">
+      <c r="AS124" s="64">
         <v>0</v>
       </c>
       <c r="AT124" s="15">
@@ -32287,10 +32287,10 @@
       <c r="BC124" s="17">
         <v>0</v>
       </c>
-      <c r="BD124" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE124" s="74">
+      <c r="BD124" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE124" s="68">
         <v>26.585578133609957</v>
       </c>
       <c r="BF124" s="12">
@@ -32502,7 +32502,7 @@
       <c r="AR125" s="17">
         <v>0</v>
       </c>
-      <c r="AS125" s="70">
+      <c r="AS125" s="64">
         <v>0</v>
       </c>
       <c r="AT125" s="15">
@@ -32535,10 +32535,10 @@
       <c r="BC125" s="17">
         <v>0</v>
       </c>
-      <c r="BD125" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE125" s="74">
+      <c r="BD125" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE125" s="68">
         <v>26.508335131772935</v>
       </c>
       <c r="BF125" s="12">
@@ -32750,7 +32750,7 @@
       <c r="AR126" s="17">
         <v>0</v>
       </c>
-      <c r="AS126" s="70">
+      <c r="AS126" s="64">
         <v>0</v>
       </c>
       <c r="AT126" s="15">
@@ -32783,10 +32783,10 @@
       <c r="BC126" s="17">
         <v>0</v>
       </c>
-      <c r="BD126" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE126" s="74">
+      <c r="BD126" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE126" s="68">
         <v>26.508335131772935</v>
       </c>
       <c r="BF126" s="12">
@@ -32998,7 +32998,7 @@
       <c r="AR127" s="17">
         <v>0</v>
       </c>
-      <c r="AS127" s="70">
+      <c r="AS127" s="64">
         <v>0</v>
       </c>
       <c r="AT127" s="15">
@@ -33031,10 +33031,10 @@
       <c r="BC127" s="17">
         <v>0</v>
       </c>
-      <c r="BD127" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE127" s="74">
+      <c r="BD127" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE127" s="68">
         <v>26.508335131772935</v>
       </c>
       <c r="BF127" s="12">
@@ -33246,7 +33246,7 @@
       <c r="AR128" s="17">
         <v>0</v>
       </c>
-      <c r="AS128" s="70">
+      <c r="AS128" s="64">
         <v>0</v>
       </c>
       <c r="AT128" s="15">
@@ -33279,10 +33279,10 @@
       <c r="BC128" s="17">
         <v>0</v>
       </c>
-      <c r="BD128" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE128" s="74">
+      <c r="BD128" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE128" s="68">
         <v>28.970517245599858</v>
       </c>
       <c r="BF128" s="12">
@@ -33494,7 +33494,7 @@
       <c r="AR129" s="20">
         <v>0</v>
       </c>
-      <c r="AS129" s="71">
+      <c r="AS129" s="65">
         <v>0</v>
       </c>
       <c r="AT129" s="18">
@@ -33527,10 +33527,10 @@
       <c r="BC129" s="20">
         <v>0</v>
       </c>
-      <c r="BD129" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE129" s="73">
+      <c r="BD129" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE129" s="67">
         <v>28.970517245599858</v>
       </c>
       <c r="BF129" s="9">
@@ -33742,7 +33742,7 @@
       <c r="AR130" s="20">
         <v>0</v>
       </c>
-      <c r="AS130" s="71">
+      <c r="AS130" s="65">
         <v>0</v>
       </c>
       <c r="AT130" s="18">
@@ -33775,10 +33775,10 @@
       <c r="BC130" s="20">
         <v>0</v>
       </c>
-      <c r="BD130" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE130" s="73">
+      <c r="BD130" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE130" s="67">
         <v>28.970517245599858</v>
       </c>
       <c r="BF130" s="9">
@@ -33990,7 +33990,7 @@
       <c r="AR131" s="20">
         <v>0</v>
       </c>
-      <c r="AS131" s="71">
+      <c r="AS131" s="65">
         <v>0</v>
       </c>
       <c r="AT131" s="18">
@@ -34023,10 +34023,10 @@
       <c r="BC131" s="20">
         <v>0</v>
       </c>
-      <c r="BD131" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE131" s="73">
+      <c r="BD131" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE131" s="67">
         <v>26.878619955293953</v>
       </c>
       <c r="BF131" s="9">
@@ -34238,7 +34238,7 @@
       <c r="AR132" s="20">
         <v>0</v>
       </c>
-      <c r="AS132" s="71">
+      <c r="AS132" s="65">
         <v>0</v>
       </c>
       <c r="AT132" s="18">
@@ -34271,10 +34271,10 @@
       <c r="BC132" s="20">
         <v>0</v>
       </c>
-      <c r="BD132" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE132" s="73">
+      <c r="BD132" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE132" s="67">
         <v>26.878619955293953</v>
       </c>
       <c r="BF132" s="9">
@@ -34486,7 +34486,7 @@
       <c r="AR133" s="20">
         <v>0</v>
       </c>
-      <c r="AS133" s="71">
+      <c r="AS133" s="65">
         <v>0</v>
       </c>
       <c r="AT133" s="18">
@@ -34519,10 +34519,10 @@
       <c r="BC133" s="20">
         <v>0</v>
       </c>
-      <c r="BD133" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE133" s="73">
+      <c r="BD133" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE133" s="67">
         <v>26.878619955293953</v>
       </c>
       <c r="BF133" s="9">
@@ -34734,7 +34734,7 @@
       <c r="AR134" s="20">
         <v>0</v>
       </c>
-      <c r="AS134" s="71">
+      <c r="AS134" s="65">
         <v>0</v>
       </c>
       <c r="AT134" s="18">
@@ -34767,10 +34767,10 @@
       <c r="BC134" s="20">
         <v>0</v>
       </c>
-      <c r="BD134" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE134" s="73">
+      <c r="BD134" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE134" s="67">
         <v>28.617360063340318</v>
       </c>
       <c r="BF134" s="9">
@@ -34982,7 +34982,7 @@
       <c r="AR135" s="20">
         <v>0</v>
       </c>
-      <c r="AS135" s="71">
+      <c r="AS135" s="65">
         <v>0</v>
       </c>
       <c r="AT135" s="18">
@@ -35015,10 +35015,10 @@
       <c r="BC135" s="20">
         <v>0</v>
       </c>
-      <c r="BD135" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE135" s="73">
+      <c r="BD135" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE135" s="67">
         <v>28.617360063340318</v>
       </c>
       <c r="BF135" s="9">
@@ -35230,7 +35230,7 @@
       <c r="AR136" s="20">
         <v>0</v>
       </c>
-      <c r="AS136" s="71">
+      <c r="AS136" s="65">
         <v>0</v>
       </c>
       <c r="AT136" s="18">
@@ -35263,10 +35263,10 @@
       <c r="BC136" s="20">
         <v>0</v>
       </c>
-      <c r="BD136" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE136" s="73">
+      <c r="BD136" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE136" s="67">
         <v>28.617360063340318</v>
       </c>
       <c r="BF136" s="9">
@@ -35478,7 +35478,7 @@
       <c r="AR137" s="20">
         <v>0</v>
       </c>
-      <c r="AS137" s="71">
+      <c r="AS137" s="65">
         <v>0</v>
       </c>
       <c r="AT137" s="18">
@@ -35511,10 +35511,10 @@
       <c r="BC137" s="20">
         <v>0</v>
       </c>
-      <c r="BD137" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE137" s="73">
+      <c r="BD137" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE137" s="67">
         <v>29.199760024503746</v>
       </c>
       <c r="BF137" s="9">
@@ -35726,7 +35726,7 @@
       <c r="AR138" s="20">
         <v>0</v>
       </c>
-      <c r="AS138" s="71">
+      <c r="AS138" s="65">
         <v>0</v>
       </c>
       <c r="AT138" s="18">
@@ -35759,10 +35759,10 @@
       <c r="BC138" s="20">
         <v>0</v>
       </c>
-      <c r="BD138" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE138" s="73">
+      <c r="BD138" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE138" s="67">
         <v>29.199760024503746</v>
       </c>
       <c r="BF138" s="9">
@@ -35974,7 +35974,7 @@
       <c r="AR139" s="20">
         <v>0</v>
       </c>
-      <c r="AS139" s="71">
+      <c r="AS139" s="65">
         <v>0</v>
       </c>
       <c r="AT139" s="18">
@@ -36007,10 +36007,10 @@
       <c r="BC139" s="20">
         <v>0</v>
       </c>
-      <c r="BD139" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE139" s="73">
+      <c r="BD139" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE139" s="67">
         <v>29.199760024503746</v>
       </c>
       <c r="BF139" s="9">
@@ -36222,7 +36222,7 @@
       <c r="AR140" s="20">
         <v>0</v>
       </c>
-      <c r="AS140" s="71">
+      <c r="AS140" s="65">
         <v>0</v>
       </c>
       <c r="AT140" s="18">
@@ -36255,10 +36255,10 @@
       <c r="BC140" s="20">
         <v>0</v>
       </c>
-      <c r="BD140" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE140" s="73">
+      <c r="BD140" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE140" s="67">
         <v>29.057636446086121</v>
       </c>
       <c r="BF140" s="9">
@@ -36470,7 +36470,7 @@
       <c r="AR141" s="20">
         <v>0</v>
       </c>
-      <c r="AS141" s="71">
+      <c r="AS141" s="65">
         <v>0</v>
       </c>
       <c r="AT141" s="18">
@@ -36503,10 +36503,10 @@
       <c r="BC141" s="20">
         <v>0</v>
       </c>
-      <c r="BD141" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE141" s="73">
+      <c r="BD141" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE141" s="67">
         <v>29.057636446086121</v>
       </c>
       <c r="BF141" s="9">
@@ -36718,7 +36718,7 @@
       <c r="AR142" s="20">
         <v>0</v>
       </c>
-      <c r="AS142" s="71">
+      <c r="AS142" s="65">
         <v>0</v>
       </c>
       <c r="AT142" s="18">
@@ -36751,10 +36751,10 @@
       <c r="BC142" s="20">
         <v>0</v>
       </c>
-      <c r="BD142" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE142" s="73">
+      <c r="BD142" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE142" s="67">
         <v>29.057636446086121</v>
       </c>
       <c r="BF142" s="9">
@@ -36966,7 +36966,7 @@
       <c r="AR143" s="20">
         <v>0</v>
       </c>
-      <c r="AS143" s="71">
+      <c r="AS143" s="65">
         <v>0</v>
       </c>
       <c r="AT143" s="18">
@@ -36999,10 +36999,10 @@
       <c r="BC143" s="20">
         <v>0</v>
       </c>
-      <c r="BD143" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE143" s="73">
+      <c r="BD143" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE143" s="67">
         <v>29.472588995220928</v>
       </c>
       <c r="BF143" s="9">
@@ -37214,7 +37214,7 @@
       <c r="AR144" s="20">
         <v>0</v>
       </c>
-      <c r="AS144" s="71">
+      <c r="AS144" s="65">
         <v>0</v>
       </c>
       <c r="AT144" s="18">
@@ -37247,10 +37247,10 @@
       <c r="BC144" s="20">
         <v>0</v>
       </c>
-      <c r="BD144" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE144" s="73">
+      <c r="BD144" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE144" s="67">
         <v>29.472588995220928</v>
       </c>
       <c r="BF144" s="9">
@@ -37462,7 +37462,7 @@
       <c r="AR145" s="20">
         <v>0</v>
       </c>
-      <c r="AS145" s="71">
+      <c r="AS145" s="65">
         <v>0</v>
       </c>
       <c r="AT145" s="18">
@@ -37495,10 +37495,10 @@
       <c r="BC145" s="20">
         <v>0</v>
       </c>
-      <c r="BD145" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE145" s="73">
+      <c r="BD145" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE145" s="67">
         <v>29.472588995220928</v>
       </c>
       <c r="BF145" s="9">
@@ -37710,7 +37710,7 @@
       <c r="AR146" s="20">
         <v>0</v>
       </c>
-      <c r="AS146" s="71">
+      <c r="AS146" s="65">
         <v>0</v>
       </c>
       <c r="AT146" s="18">
@@ -37743,10 +37743,10 @@
       <c r="BC146" s="20">
         <v>0</v>
       </c>
-      <c r="BD146" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE146" s="73">
+      <c r="BD146" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE146" s="67">
         <v>29.294604314401294</v>
       </c>
       <c r="BF146" s="9">
@@ -37958,7 +37958,7 @@
       <c r="AR147" s="20">
         <v>0</v>
       </c>
-      <c r="AS147" s="71">
+      <c r="AS147" s="65">
         <v>0</v>
       </c>
       <c r="AT147" s="18">
@@ -37991,10 +37991,10 @@
       <c r="BC147" s="20">
         <v>0</v>
       </c>
-      <c r="BD147" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE147" s="73">
+      <c r="BD147" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE147" s="67">
         <v>29.294604314401294</v>
       </c>
       <c r="BF147" s="9">
@@ -38206,7 +38206,7 @@
       <c r="AR148" s="20">
         <v>0</v>
       </c>
-      <c r="AS148" s="71">
+      <c r="AS148" s="65">
         <v>0</v>
       </c>
       <c r="AT148" s="18">
@@ -38239,10 +38239,10 @@
       <c r="BC148" s="20">
         <v>0</v>
       </c>
-      <c r="BD148" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE148" s="73">
+      <c r="BD148" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE148" s="67">
         <v>24.959773228457415</v>
       </c>
       <c r="BF148" s="9">
@@ -38454,7 +38454,7 @@
       <c r="AR149" s="20">
         <v>0</v>
       </c>
-      <c r="AS149" s="71">
+      <c r="AS149" s="65">
         <v>0</v>
       </c>
       <c r="AT149" s="18">
@@ -38487,10 +38487,10 @@
       <c r="BC149" s="20">
         <v>0</v>
       </c>
-      <c r="BD149" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE149" s="73">
+      <c r="BD149" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE149" s="67">
         <v>24.959773228457415</v>
       </c>
       <c r="BF149" s="9">
@@ -38702,7 +38702,7 @@
       <c r="AR150" s="20">
         <v>0</v>
       </c>
-      <c r="AS150" s="71">
+      <c r="AS150" s="65">
         <v>0</v>
       </c>
       <c r="AT150" s="18">
@@ -38735,10 +38735,10 @@
       <c r="BC150" s="20">
         <v>0</v>
       </c>
-      <c r="BD150" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE150" s="73">
+      <c r="BD150" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE150" s="67">
         <v>24.959773228457415</v>
       </c>
       <c r="BF150" s="9">
@@ -38950,7 +38950,7 @@
       <c r="AR151" s="20">
         <v>0</v>
       </c>
-      <c r="AS151" s="71">
+      <c r="AS151" s="65">
         <v>0</v>
       </c>
       <c r="AT151" s="18">
@@ -38983,10 +38983,10 @@
       <c r="BC151" s="20">
         <v>0</v>
       </c>
-      <c r="BD151" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE151" s="73">
+      <c r="BD151" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE151" s="67">
         <v>28.835725290797157</v>
       </c>
       <c r="BF151" s="9">
@@ -39198,7 +39198,7 @@
       <c r="AR152" s="20">
         <v>0</v>
       </c>
-      <c r="AS152" s="71">
+      <c r="AS152" s="65">
         <v>0</v>
       </c>
       <c r="AT152" s="18">
@@ -39231,10 +39231,10 @@
       <c r="BC152" s="20">
         <v>0</v>
       </c>
-      <c r="BD152" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE152" s="73">
+      <c r="BD152" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE152" s="67">
         <v>28.835725290797157</v>
       </c>
       <c r="BF152" s="9">
@@ -39446,7 +39446,7 @@
       <c r="AR153" s="20">
         <v>0</v>
       </c>
-      <c r="AS153" s="71">
+      <c r="AS153" s="65">
         <v>0</v>
       </c>
       <c r="AT153" s="18">
@@ -39479,10 +39479,10 @@
       <c r="BC153" s="20">
         <v>0</v>
       </c>
-      <c r="BD153" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE153" s="73">
+      <c r="BD153" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE153" s="67">
         <v>28.835725290797157</v>
       </c>
       <c r="BF153" s="9">
@@ -39694,7 +39694,7 @@
       <c r="AR154" s="20">
         <v>0</v>
       </c>
-      <c r="AS154" s="71">
+      <c r="AS154" s="65">
         <v>0</v>
       </c>
       <c r="AT154" s="18">
@@ -39727,10 +39727,10 @@
       <c r="BC154" s="20">
         <v>0</v>
       </c>
-      <c r="BD154" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE154" s="73">
+      <c r="BD154" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE154" s="67">
         <v>28.754754084586018</v>
       </c>
       <c r="BF154" s="9">
@@ -39942,7 +39942,7 @@
       <c r="AR155" s="20">
         <v>0</v>
       </c>
-      <c r="AS155" s="71">
+      <c r="AS155" s="65">
         <v>0</v>
       </c>
       <c r="AT155" s="18">
@@ -39975,10 +39975,10 @@
       <c r="BC155" s="20">
         <v>0</v>
       </c>
-      <c r="BD155" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE155" s="73">
+      <c r="BD155" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE155" s="67">
         <v>28.754754084586018</v>
       </c>
       <c r="BF155" s="9">
@@ -40190,7 +40190,7 @@
       <c r="AR156" s="20">
         <v>0</v>
       </c>
-      <c r="AS156" s="71">
+      <c r="AS156" s="65">
         <v>0</v>
       </c>
       <c r="AT156" s="18">
@@ -40223,10 +40223,10 @@
       <c r="BC156" s="20">
         <v>0</v>
       </c>
-      <c r="BD156" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE156" s="73">
+      <c r="BD156" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE156" s="67">
         <v>28.754754084586018</v>
       </c>
       <c r="BF156" s="9">
@@ -40438,7 +40438,7 @@
       <c r="AR157" s="20">
         <v>0</v>
       </c>
-      <c r="AS157" s="71">
+      <c r="AS157" s="65">
         <v>0</v>
       </c>
       <c r="AT157" s="18">
@@ -40471,10 +40471,10 @@
       <c r="BC157" s="20">
         <v>0</v>
       </c>
-      <c r="BD157" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE157" s="73">
+      <c r="BD157" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE157" s="67">
         <v>28.695964983591015</v>
       </c>
       <c r="BF157" s="9">
@@ -40686,7 +40686,7 @@
       <c r="AR158" s="20">
         <v>0</v>
       </c>
-      <c r="AS158" s="71">
+      <c r="AS158" s="65">
         <v>0</v>
       </c>
       <c r="AT158" s="18">
@@ -40719,10 +40719,10 @@
       <c r="BC158" s="20">
         <v>0</v>
       </c>
-      <c r="BD158" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE158" s="73">
+      <c r="BD158" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE158" s="67">
         <v>28.695964983591015</v>
       </c>
       <c r="BF158" s="9">
@@ -40934,7 +40934,7 @@
       <c r="AR159" s="20">
         <v>0</v>
       </c>
-      <c r="AS159" s="71">
+      <c r="AS159" s="65">
         <v>0</v>
       </c>
       <c r="AT159" s="18">
@@ -40967,10 +40967,10 @@
       <c r="BC159" s="20">
         <v>0</v>
       </c>
-      <c r="BD159" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE159" s="73">
+      <c r="BD159" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE159" s="67">
         <v>28.695964983591015</v>
       </c>
       <c r="BF159" s="9">
@@ -41182,7 +41182,7 @@
       <c r="AR160" s="20">
         <v>0</v>
       </c>
-      <c r="AS160" s="71">
+      <c r="AS160" s="65">
         <v>0</v>
       </c>
       <c r="AT160" s="18">
@@ -41215,10 +41215,10 @@
       <c r="BC160" s="20">
         <v>0</v>
       </c>
-      <c r="BD160" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE160" s="73">
+      <c r="BD160" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE160" s="67">
         <v>28.439331096723702</v>
       </c>
       <c r="BF160" s="9">
@@ -41430,7 +41430,7 @@
       <c r="AR161" s="20">
         <v>0</v>
       </c>
-      <c r="AS161" s="71">
+      <c r="AS161" s="65">
         <v>0</v>
       </c>
       <c r="AT161" s="18">
@@ -41463,10 +41463,10 @@
       <c r="BC161" s="20">
         <v>0</v>
       </c>
-      <c r="BD161" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE161" s="73">
+      <c r="BD161" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE161" s="67">
         <v>28.439331096723702</v>
       </c>
       <c r="BF161" s="9">
@@ -41678,7 +41678,7 @@
       <c r="AR162" s="20">
         <v>0</v>
       </c>
-      <c r="AS162" s="71">
+      <c r="AS162" s="65">
         <v>0</v>
       </c>
       <c r="AT162" s="18">
@@ -41711,10 +41711,10 @@
       <c r="BC162" s="20">
         <v>0</v>
       </c>
-      <c r="BD162" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE162" s="73">
+      <c r="BD162" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE162" s="67">
         <v>28.439331096723702</v>
       </c>
       <c r="BF162" s="9">
@@ -41926,7 +41926,7 @@
       <c r="AR163" s="20">
         <v>0</v>
       </c>
-      <c r="AS163" s="71">
+      <c r="AS163" s="65">
         <v>0</v>
       </c>
       <c r="AT163" s="18">
@@ -41959,10 +41959,10 @@
       <c r="BC163" s="20">
         <v>0</v>
       </c>
-      <c r="BD163" s="80">
-        <v>0</v>
-      </c>
-      <c r="BE163" s="73">
+      <c r="BD163" s="74">
+        <v>0</v>
+      </c>
+      <c r="BE163" s="67">
         <v>28.679134644509219</v>
       </c>
       <c r="BF163" s="9">
@@ -42174,7 +42174,7 @@
       <c r="AR164" s="17">
         <v>0</v>
       </c>
-      <c r="AS164" s="70">
+      <c r="AS164" s="64">
         <v>0</v>
       </c>
       <c r="AT164" s="15">
@@ -42207,10 +42207,10 @@
       <c r="BC164" s="17">
         <v>0</v>
       </c>
-      <c r="BD164" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE164" s="74">
+      <c r="BD164" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE164" s="68">
         <v>28.679134644509219</v>
       </c>
       <c r="BF164" s="12">
@@ -42422,7 +42422,7 @@
       <c r="AR165" s="17">
         <v>0</v>
       </c>
-      <c r="AS165" s="70">
+      <c r="AS165" s="64">
         <v>0</v>
       </c>
       <c r="AT165" s="15">
@@ -42455,10 +42455,10 @@
       <c r="BC165" s="17">
         <v>0</v>
       </c>
-      <c r="BD165" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE165" s="74">
+      <c r="BD165" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE165" s="68">
         <v>28.679134644509219</v>
       </c>
       <c r="BF165" s="12">
@@ -42670,7 +42670,7 @@
       <c r="AR166" s="17">
         <v>0</v>
       </c>
-      <c r="AS166" s="70">
+      <c r="AS166" s="64">
         <v>0</v>
       </c>
       <c r="AT166" s="15">
@@ -42703,10 +42703,10 @@
       <c r="BC166" s="17">
         <v>0</v>
       </c>
-      <c r="BD166" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE166" s="74">
+      <c r="BD166" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE166" s="68">
         <v>29.081688517761474</v>
       </c>
       <c r="BF166" s="12">
@@ -42918,7 +42918,7 @@
       <c r="AR167" s="17">
         <v>0</v>
       </c>
-      <c r="AS167" s="70">
+      <c r="AS167" s="64">
         <v>0</v>
       </c>
       <c r="AT167" s="15">
@@ -42951,10 +42951,10 @@
       <c r="BC167" s="17">
         <v>0</v>
       </c>
-      <c r="BD167" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE167" s="74">
+      <c r="BD167" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE167" s="68">
         <v>29.081688517761474</v>
       </c>
       <c r="BF167" s="12">
@@ -43166,7 +43166,7 @@
       <c r="AR168" s="17">
         <v>0</v>
       </c>
-      <c r="AS168" s="70">
+      <c r="AS168" s="64">
         <v>0</v>
       </c>
       <c r="AT168" s="15">
@@ -43199,10 +43199,10 @@
       <c r="BC168" s="17">
         <v>0</v>
       </c>
-      <c r="BD168" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE168" s="74">
+      <c r="BD168" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE168" s="68">
         <v>29.081688517761474</v>
       </c>
       <c r="BF168" s="12">
@@ -43414,7 +43414,7 @@
       <c r="AR169" s="17">
         <v>0</v>
       </c>
-      <c r="AS169" s="70">
+      <c r="AS169" s="64">
         <v>0</v>
       </c>
       <c r="AT169" s="15">
@@ -43447,10 +43447,10 @@
       <c r="BC169" s="17">
         <v>0</v>
       </c>
-      <c r="BD169" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE169" s="74">
+      <c r="BD169" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE169" s="68">
         <v>30.909467882097616</v>
       </c>
       <c r="BF169" s="12">
@@ -43662,7 +43662,7 @@
       <c r="AR170" s="17">
         <v>0</v>
       </c>
-      <c r="AS170" s="70">
+      <c r="AS170" s="64">
         <v>0</v>
       </c>
       <c r="AT170" s="15">
@@ -43695,10 +43695,10 @@
       <c r="BC170" s="17">
         <v>0</v>
       </c>
-      <c r="BD170" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE170" s="74">
+      <c r="BD170" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE170" s="68">
         <v>30.909467882097616</v>
       </c>
       <c r="BF170" s="12">
@@ -43910,7 +43910,7 @@
       <c r="AR171" s="17">
         <v>0</v>
       </c>
-      <c r="AS171" s="70">
+      <c r="AS171" s="64">
         <v>0</v>
       </c>
       <c r="AT171" s="15">
@@ -43943,10 +43943,10 @@
       <c r="BC171" s="17">
         <v>0</v>
       </c>
-      <c r="BD171" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE171" s="74">
+      <c r="BD171" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE171" s="68">
         <v>30.909467882097616</v>
       </c>
       <c r="BF171" s="12">
@@ -44158,7 +44158,7 @@
       <c r="AR172" s="17">
         <v>0</v>
       </c>
-      <c r="AS172" s="70">
+      <c r="AS172" s="64">
         <v>0</v>
       </c>
       <c r="AT172" s="15">
@@ -44191,10 +44191,10 @@
       <c r="BC172" s="17">
         <v>0</v>
       </c>
-      <c r="BD172" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE172" s="74">
+      <c r="BD172" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE172" s="68">
         <v>30.027570143848813</v>
       </c>
       <c r="BF172" s="12">
@@ -44406,7 +44406,7 @@
       <c r="AR173" s="17">
         <v>0</v>
       </c>
-      <c r="AS173" s="70">
+      <c r="AS173" s="64">
         <v>0</v>
       </c>
       <c r="AT173" s="15">
@@ -44439,10 +44439,10 @@
       <c r="BC173" s="17">
         <v>0</v>
       </c>
-      <c r="BD173" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE173" s="74">
+      <c r="BD173" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE173" s="68">
         <v>30.027570143848813</v>
       </c>
       <c r="BF173" s="12">
@@ -44654,7 +44654,7 @@
       <c r="AR174" s="17">
         <v>0</v>
       </c>
-      <c r="AS174" s="70">
+      <c r="AS174" s="64">
         <v>0</v>
       </c>
       <c r="AT174" s="15">
@@ -44687,10 +44687,10 @@
       <c r="BC174" s="17">
         <v>0</v>
       </c>
-      <c r="BD174" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE174" s="74">
+      <c r="BD174" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE174" s="68">
         <v>30.027570143848813</v>
       </c>
       <c r="BF174" s="12">
@@ -44902,7 +44902,7 @@
       <c r="AR175" s="17">
         <v>0</v>
       </c>
-      <c r="AS175" s="70">
+      <c r="AS175" s="64">
         <v>0</v>
       </c>
       <c r="AT175" s="15">
@@ -44935,10 +44935,10 @@
       <c r="BC175" s="17">
         <v>0</v>
       </c>
-      <c r="BD175" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE175" s="74">
+      <c r="BD175" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE175" s="68">
         <v>31.121844662145008</v>
       </c>
       <c r="BF175" s="12">
@@ -45150,7 +45150,7 @@
       <c r="AR176" s="17">
         <v>0</v>
       </c>
-      <c r="AS176" s="70">
+      <c r="AS176" s="64">
         <v>0</v>
       </c>
       <c r="AT176" s="15">
@@ -45183,10 +45183,10 @@
       <c r="BC176" s="17">
         <v>0</v>
       </c>
-      <c r="BD176" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE176" s="74">
+      <c r="BD176" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE176" s="68">
         <v>31.121844662145008</v>
       </c>
       <c r="BF176" s="12">
@@ -45398,7 +45398,7 @@
       <c r="AR177" s="17">
         <v>0</v>
       </c>
-      <c r="AS177" s="70">
+      <c r="AS177" s="64">
         <v>0</v>
       </c>
       <c r="AT177" s="15">
@@ -45431,10 +45431,10 @@
       <c r="BC177" s="17">
         <v>0</v>
       </c>
-      <c r="BD177" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE177" s="74">
+      <c r="BD177" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE177" s="68">
         <v>28.754032440909768</v>
       </c>
       <c r="BF177" s="12">
@@ -45646,7 +45646,7 @@
       <c r="AR178" s="17">
         <v>0</v>
       </c>
-      <c r="AS178" s="70">
+      <c r="AS178" s="64">
         <v>0</v>
       </c>
       <c r="AT178" s="15">
@@ -45679,10 +45679,10 @@
       <c r="BC178" s="17">
         <v>0</v>
       </c>
-      <c r="BD178" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE178" s="74">
+      <c r="BD178" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE178" s="68">
         <v>28.754032440909768</v>
       </c>
       <c r="BF178" s="12">
@@ -45894,7 +45894,7 @@
       <c r="AR179" s="17">
         <v>0</v>
       </c>
-      <c r="AS179" s="70">
+      <c r="AS179" s="64">
         <v>0</v>
       </c>
       <c r="AT179" s="15">
@@ -45927,10 +45927,10 @@
       <c r="BC179" s="17">
         <v>0</v>
       </c>
-      <c r="BD179" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE179" s="74">
+      <c r="BD179" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE179" s="68">
         <v>28.754032440909768</v>
       </c>
       <c r="BF179" s="12">
@@ -46142,7 +46142,7 @@
       <c r="AR180" s="17">
         <v>0</v>
       </c>
-      <c r="AS180" s="70">
+      <c r="AS180" s="64">
         <v>0</v>
       </c>
       <c r="AT180" s="15">
@@ -46175,10 +46175,10 @@
       <c r="BC180" s="17">
         <v>0</v>
       </c>
-      <c r="BD180" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE180" s="74">
+      <c r="BD180" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE180" s="68">
         <v>28.988048837527298</v>
       </c>
       <c r="BF180" s="12">
@@ -46390,7 +46390,7 @@
       <c r="AR181" s="17">
         <v>0</v>
       </c>
-      <c r="AS181" s="70">
+      <c r="AS181" s="64">
         <v>0</v>
       </c>
       <c r="AT181" s="15">
@@ -46423,10 +46423,10 @@
       <c r="BC181" s="17">
         <v>0</v>
       </c>
-      <c r="BD181" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE181" s="74">
+      <c r="BD181" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE181" s="68">
         <v>28.988048837527298</v>
       </c>
       <c r="BF181" s="12">
@@ -46638,7 +46638,7 @@
       <c r="AR182" s="17">
         <v>0</v>
       </c>
-      <c r="AS182" s="70">
+      <c r="AS182" s="64">
         <v>0</v>
       </c>
       <c r="AT182" s="15">
@@ -46671,10 +46671,10 @@
       <c r="BC182" s="17">
         <v>0</v>
       </c>
-      <c r="BD182" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE182" s="74">
+      <c r="BD182" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE182" s="68">
         <v>28.988048837527298</v>
       </c>
       <c r="BF182" s="12">
@@ -46886,7 +46886,7 @@
       <c r="AR183" s="17">
         <v>0</v>
       </c>
-      <c r="AS183" s="70">
+      <c r="AS183" s="64">
         <v>0</v>
       </c>
       <c r="AT183" s="15">
@@ -46919,10 +46919,10 @@
       <c r="BC183" s="17">
         <v>0</v>
       </c>
-      <c r="BD183" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE183" s="74">
+      <c r="BD183" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE183" s="68">
         <v>29.812374986000734</v>
       </c>
       <c r="BF183" s="12">
@@ -47134,7 +47134,7 @@
       <c r="AR184" s="17">
         <v>0</v>
       </c>
-      <c r="AS184" s="70">
+      <c r="AS184" s="64">
         <v>0</v>
       </c>
       <c r="AT184" s="15">
@@ -47167,10 +47167,10 @@
       <c r="BC184" s="17">
         <v>0</v>
       </c>
-      <c r="BD184" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE184" s="74">
+      <c r="BD184" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE184" s="68">
         <v>29.812374986000734</v>
       </c>
       <c r="BF184" s="12">
@@ -47382,7 +47382,7 @@
       <c r="AR185" s="17">
         <v>0</v>
       </c>
-      <c r="AS185" s="70">
+      <c r="AS185" s="64">
         <v>0</v>
       </c>
       <c r="AT185" s="15">
@@ -47415,10 +47415,10 @@
       <c r="BC185" s="17">
         <v>0</v>
       </c>
-      <c r="BD185" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE185" s="74">
+      <c r="BD185" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE185" s="68">
         <v>29.812374986000734</v>
       </c>
       <c r="BF185" s="12">
@@ -47630,7 +47630,7 @@
       <c r="AR186" s="17">
         <v>0</v>
       </c>
-      <c r="AS186" s="70">
+      <c r="AS186" s="64">
         <v>0</v>
       </c>
       <c r="AT186" s="15">
@@ -47663,10 +47663,10 @@
       <c r="BC186" s="17">
         <v>0</v>
       </c>
-      <c r="BD186" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE186" s="74">
+      <c r="BD186" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE186" s="68">
         <v>28.276102233284305</v>
       </c>
       <c r="BF186" s="12">
@@ -47878,7 +47878,7 @@
       <c r="AR187" s="17">
         <v>0</v>
       </c>
-      <c r="AS187" s="70">
+      <c r="AS187" s="64">
         <v>0</v>
       </c>
       <c r="AT187" s="15">
@@ -47911,10 +47911,10 @@
       <c r="BC187" s="17">
         <v>0</v>
       </c>
-      <c r="BD187" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE187" s="74">
+      <c r="BD187" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE187" s="68">
         <v>28.276102233284305</v>
       </c>
       <c r="BF187" s="12">
@@ -48126,7 +48126,7 @@
       <c r="AR188" s="17">
         <v>0</v>
       </c>
-      <c r="AS188" s="70">
+      <c r="AS188" s="64">
         <v>0</v>
       </c>
       <c r="AT188" s="15">
@@ -48159,10 +48159,10 @@
       <c r="BC188" s="17">
         <v>0</v>
       </c>
-      <c r="BD188" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE188" s="74">
+      <c r="BD188" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE188" s="68">
         <v>28.276102233284305</v>
       </c>
       <c r="BF188" s="12">
@@ -48374,7 +48374,7 @@
       <c r="AR189" s="17">
         <v>0</v>
       </c>
-      <c r="AS189" s="70">
+      <c r="AS189" s="64">
         <v>0</v>
       </c>
       <c r="AT189" s="15">
@@ -48407,10 +48407,10 @@
       <c r="BC189" s="17">
         <v>0</v>
       </c>
-      <c r="BD189" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE189" s="74">
+      <c r="BD189" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE189" s="68">
         <v>28.237942158742708</v>
       </c>
       <c r="BF189" s="12">
@@ -48622,7 +48622,7 @@
       <c r="AR190" s="17">
         <v>0</v>
       </c>
-      <c r="AS190" s="70">
+      <c r="AS190" s="64">
         <v>0</v>
       </c>
       <c r="AT190" s="15">
@@ -48655,10 +48655,10 @@
       <c r="BC190" s="17">
         <v>0</v>
       </c>
-      <c r="BD190" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE190" s="74">
+      <c r="BD190" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE190" s="68">
         <v>28.237942158742708</v>
       </c>
       <c r="BF190" s="12">
@@ -48870,7 +48870,7 @@
       <c r="AR191" s="17">
         <v>0</v>
       </c>
-      <c r="AS191" s="70">
+      <c r="AS191" s="64">
         <v>0</v>
       </c>
       <c r="AT191" s="15">
@@ -48903,10 +48903,10 @@
       <c r="BC191" s="17">
         <v>0</v>
       </c>
-      <c r="BD191" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE191" s="74">
+      <c r="BD191" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE191" s="68">
         <v>28.237942158742708</v>
       </c>
       <c r="BF191" s="12">
@@ -49118,7 +49118,7 @@
       <c r="AR192" s="17">
         <v>0</v>
       </c>
-      <c r="AS192" s="70">
+      <c r="AS192" s="64">
         <v>0</v>
       </c>
       <c r="AT192" s="15">
@@ -49151,10 +49151,10 @@
       <c r="BC192" s="17">
         <v>0</v>
       </c>
-      <c r="BD192" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE192" s="74">
+      <c r="BD192" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE192" s="68">
         <v>29.871768910022286</v>
       </c>
       <c r="BF192" s="12">
@@ -49366,7 +49366,7 @@
       <c r="AR193" s="17">
         <v>0</v>
       </c>
-      <c r="AS193" s="70">
+      <c r="AS193" s="64">
         <v>0</v>
       </c>
       <c r="AT193" s="15">
@@ -49399,10 +49399,10 @@
       <c r="BC193" s="17">
         <v>0</v>
       </c>
-      <c r="BD193" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE193" s="74">
+      <c r="BD193" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE193" s="68">
         <v>29.871768910022286</v>
       </c>
       <c r="BF193" s="12">
@@ -49614,7 +49614,7 @@
       <c r="AR194" s="17">
         <v>0</v>
       </c>
-      <c r="AS194" s="70">
+      <c r="AS194" s="64">
         <v>0</v>
       </c>
       <c r="AT194" s="15">
@@ -49647,10 +49647,10 @@
       <c r="BC194" s="17">
         <v>0</v>
       </c>
-      <c r="BD194" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE194" s="74">
+      <c r="BD194" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE194" s="68">
         <v>29.871768910022286</v>
       </c>
       <c r="BF194" s="12">
@@ -49862,7 +49862,7 @@
       <c r="AR195" s="17">
         <v>0</v>
       </c>
-      <c r="AS195" s="70">
+      <c r="AS195" s="64">
         <v>0</v>
       </c>
       <c r="AT195" s="15">
@@ -49895,10 +49895,10 @@
       <c r="BC195" s="17">
         <v>0</v>
       </c>
-      <c r="BD195" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE195" s="74">
+      <c r="BD195" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE195" s="68">
         <v>29.351302092784795</v>
       </c>
       <c r="BF195" s="12">
@@ -50110,7 +50110,7 @@
       <c r="AR196" s="17">
         <v>0</v>
       </c>
-      <c r="AS196" s="70">
+      <c r="AS196" s="64">
         <v>0</v>
       </c>
       <c r="AT196" s="15">
@@ -50143,10 +50143,10 @@
       <c r="BC196" s="17">
         <v>0</v>
       </c>
-      <c r="BD196" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE196" s="74">
+      <c r="BD196" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE196" s="68">
         <v>29.351302092784795</v>
       </c>
       <c r="BF196" s="12">
@@ -50358,7 +50358,7 @@
       <c r="AR197" s="17">
         <v>0</v>
       </c>
-      <c r="AS197" s="70">
+      <c r="AS197" s="64">
         <v>0</v>
       </c>
       <c r="AT197" s="15">
@@ -50391,10 +50391,10 @@
       <c r="BC197" s="17">
         <v>0</v>
       </c>
-      <c r="BD197" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE197" s="74">
+      <c r="BD197" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE197" s="68">
         <v>29.351302092784795</v>
       </c>
       <c r="BF197" s="12">
@@ -50606,7 +50606,7 @@
       <c r="AR198" s="17">
         <v>0</v>
       </c>
-      <c r="AS198" s="70">
+      <c r="AS198" s="64">
         <v>0</v>
       </c>
       <c r="AT198" s="15">
@@ -50639,10 +50639,10 @@
       <c r="BC198" s="17">
         <v>0</v>
       </c>
-      <c r="BD198" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE198" s="74">
+      <c r="BD198" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE198" s="68">
         <v>26.898006702116152</v>
       </c>
       <c r="BF198" s="12">
@@ -50854,7 +50854,7 @@
       <c r="AR199" s="17">
         <v>0</v>
       </c>
-      <c r="AS199" s="70">
+      <c r="AS199" s="64">
         <v>0</v>
       </c>
       <c r="AT199" s="15">
@@ -50887,10 +50887,10 @@
       <c r="BC199" s="17">
         <v>0</v>
       </c>
-      <c r="BD199" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE199" s="74">
+      <c r="BD199" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE199" s="68">
         <v>26.898006702116152</v>
       </c>
       <c r="BF199" s="12">
@@ -51102,7 +51102,7 @@
       <c r="AR200" s="17">
         <v>0</v>
       </c>
-      <c r="AS200" s="70">
+      <c r="AS200" s="64">
         <v>0</v>
       </c>
       <c r="AT200" s="15">
@@ -51135,10 +51135,10 @@
       <c r="BC200" s="17">
         <v>0</v>
       </c>
-      <c r="BD200" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE200" s="74">
+      <c r="BD200" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE200" s="68">
         <v>26.898006702116152</v>
       </c>
       <c r="BF200" s="12">
@@ -51350,7 +51350,7 @@
       <c r="AR201" s="17">
         <v>0</v>
       </c>
-      <c r="AS201" s="70">
+      <c r="AS201" s="64">
         <v>0</v>
       </c>
       <c r="AT201" s="15">
@@ -51383,10 +51383,10 @@
       <c r="BC201" s="17">
         <v>0</v>
       </c>
-      <c r="BD201" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE201" s="74">
+      <c r="BD201" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE201" s="68">
         <v>28.335850632672123</v>
       </c>
       <c r="BF201" s="12">
@@ -51598,7 +51598,7 @@
       <c r="AR202" s="17">
         <v>0</v>
       </c>
-      <c r="AS202" s="70">
+      <c r="AS202" s="64">
         <v>0</v>
       </c>
       <c r="AT202" s="15">
@@ -51631,10 +51631,10 @@
       <c r="BC202" s="17">
         <v>0</v>
       </c>
-      <c r="BD202" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE202" s="74">
+      <c r="BD202" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE202" s="68">
         <v>28.335850632672123</v>
       </c>
       <c r="BF202" s="12">
@@ -51846,7 +51846,7 @@
       <c r="AR203" s="17">
         <v>0</v>
       </c>
-      <c r="AS203" s="70">
+      <c r="AS203" s="64">
         <v>0</v>
       </c>
       <c r="AT203" s="15">
@@ -51879,10 +51879,10 @@
       <c r="BC203" s="17">
         <v>0</v>
       </c>
-      <c r="BD203" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE203" s="74">
+      <c r="BD203" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE203" s="68">
         <v>28.335850632672123</v>
       </c>
       <c r="BF203" s="12">
@@ -52094,7 +52094,7 @@
       <c r="AR204" s="17">
         <v>0</v>
       </c>
-      <c r="AS204" s="70">
+      <c r="AS204" s="64">
         <v>0</v>
       </c>
       <c r="AT204" s="15">
@@ -52127,10 +52127,10 @@
       <c r="BC204" s="17">
         <v>0</v>
       </c>
-      <c r="BD204" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE204" s="74">
+      <c r="BD204" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE204" s="68">
         <v>29.509798914779292</v>
       </c>
       <c r="BF204" s="12">
@@ -52342,7 +52342,7 @@
       <c r="AR205" s="17">
         <v>0</v>
       </c>
-      <c r="AS205" s="70">
+      <c r="AS205" s="64">
         <v>0</v>
       </c>
       <c r="AT205" s="15">
@@ -52375,10 +52375,10 @@
       <c r="BC205" s="17">
         <v>0</v>
       </c>
-      <c r="BD205" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE205" s="74">
+      <c r="BD205" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE205" s="68">
         <v>29.509798914779292</v>
       </c>
       <c r="BF205" s="12">
@@ -52590,7 +52590,7 @@
       <c r="AR206" s="17">
         <v>0</v>
       </c>
-      <c r="AS206" s="70">
+      <c r="AS206" s="64">
         <v>0</v>
       </c>
       <c r="AT206" s="15">
@@ -52623,10 +52623,10 @@
       <c r="BC206" s="17">
         <v>0</v>
       </c>
-      <c r="BD206" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE206" s="74">
+      <c r="BD206" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE206" s="68">
         <v>30.948241324969349</v>
       </c>
       <c r="BF206" s="12">
@@ -52838,7 +52838,7 @@
       <c r="AR207" s="17">
         <v>0</v>
       </c>
-      <c r="AS207" s="70">
+      <c r="AS207" s="64">
         <v>0</v>
       </c>
       <c r="AT207" s="15">
@@ -52871,10 +52871,10 @@
       <c r="BC207" s="17">
         <v>0</v>
       </c>
-      <c r="BD207" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE207" s="74">
+      <c r="BD207" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE207" s="68">
         <v>30.948241324969349</v>
       </c>
       <c r="BF207" s="12">
@@ -53086,7 +53086,7 @@
       <c r="AR208" s="17">
         <v>0</v>
       </c>
-      <c r="AS208" s="70">
+      <c r="AS208" s="64">
         <v>0</v>
       </c>
       <c r="AT208" s="15">
@@ -53119,10 +53119,10 @@
       <c r="BC208" s="17">
         <v>0</v>
       </c>
-      <c r="BD208" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE208" s="74">
+      <c r="BD208" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE208" s="68">
         <v>30.948241324969349</v>
       </c>
       <c r="BF208" s="12">
@@ -53334,7 +53334,7 @@
       <c r="AR209" s="17">
         <v>0</v>
       </c>
-      <c r="AS209" s="70">
+      <c r="AS209" s="64">
         <v>0</v>
       </c>
       <c r="AT209" s="15">
@@ -53367,10 +53367,10 @@
       <c r="BC209" s="17">
         <v>0</v>
       </c>
-      <c r="BD209" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE209" s="74">
+      <c r="BD209" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE209" s="68">
         <v>29.034564955957322</v>
       </c>
       <c r="BF209" s="12">
@@ -53582,7 +53582,7 @@
       <c r="AR210" s="17">
         <v>0</v>
       </c>
-      <c r="AS210" s="70">
+      <c r="AS210" s="64">
         <v>0</v>
       </c>
       <c r="AT210" s="15">
@@ -53615,10 +53615,10 @@
       <c r="BC210" s="17">
         <v>0</v>
       </c>
-      <c r="BD210" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE210" s="74">
+      <c r="BD210" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE210" s="68">
         <v>29.034564955957322</v>
       </c>
       <c r="BF210" s="12">
@@ -53830,7 +53830,7 @@
       <c r="AR211" s="17">
         <v>0</v>
       </c>
-      <c r="AS211" s="70">
+      <c r="AS211" s="64">
         <v>0</v>
       </c>
       <c r="AT211" s="15">
@@ -53863,10 +53863,10 @@
       <c r="BC211" s="17">
         <v>0</v>
       </c>
-      <c r="BD211" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE211" s="74">
+      <c r="BD211" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE211" s="68">
         <v>29.034564955957322</v>
       </c>
       <c r="BF211" s="12">
@@ -54078,7 +54078,7 @@
       <c r="AR212" s="17">
         <v>0</v>
       </c>
-      <c r="AS212" s="70">
+      <c r="AS212" s="64">
         <v>0</v>
       </c>
       <c r="AT212" s="15">
@@ -54111,10 +54111,10 @@
       <c r="BC212" s="17">
         <v>0</v>
       </c>
-      <c r="BD212" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE212" s="74">
+      <c r="BD212" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE212" s="68">
         <v>30.002528994519174</v>
       </c>
       <c r="BF212" s="12">
@@ -54326,7 +54326,7 @@
       <c r="AR213" s="17">
         <v>0</v>
       </c>
-      <c r="AS213" s="70">
+      <c r="AS213" s="64">
         <v>0</v>
       </c>
       <c r="AT213" s="15">
@@ -54359,10 +54359,10 @@
       <c r="BC213" s="17">
         <v>0</v>
       </c>
-      <c r="BD213" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE213" s="74">
+      <c r="BD213" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE213" s="68">
         <v>30.002528994519174</v>
       </c>
       <c r="BF213" s="12">
@@ -54574,7 +54574,7 @@
       <c r="AR214" s="17">
         <v>0</v>
       </c>
-      <c r="AS214" s="70">
+      <c r="AS214" s="64">
         <v>0</v>
       </c>
       <c r="AT214" s="15">
@@ -54607,10 +54607,10 @@
       <c r="BC214" s="17">
         <v>0</v>
       </c>
-      <c r="BD214" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE214" s="74">
+      <c r="BD214" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE214" s="68">
         <v>30.002528994519174</v>
       </c>
       <c r="BF214" s="12">
@@ -54822,7 +54822,7 @@
       <c r="AR215" s="17">
         <v>0</v>
       </c>
-      <c r="AS215" s="70">
+      <c r="AS215" s="64">
         <v>0</v>
       </c>
       <c r="AT215" s="15">
@@ -54855,10 +54855,10 @@
       <c r="BC215" s="17">
         <v>0</v>
       </c>
-      <c r="BD215" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE215" s="74">
+      <c r="BD215" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE215" s="68">
         <v>29.358230595129367</v>
       </c>
       <c r="BF215" s="12">
@@ -55070,7 +55070,7 @@
       <c r="AR216" s="17">
         <v>0</v>
       </c>
-      <c r="AS216" s="70">
+      <c r="AS216" s="64">
         <v>0</v>
       </c>
       <c r="AT216" s="15">
@@ -55103,10 +55103,10 @@
       <c r="BC216" s="17">
         <v>0</v>
       </c>
-      <c r="BD216" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE216" s="74">
+      <c r="BD216" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE216" s="68">
         <v>29.358230595129367</v>
       </c>
       <c r="BF216" s="12">
@@ -55318,7 +55318,7 @@
       <c r="AR217" s="17">
         <v>0</v>
       </c>
-      <c r="AS217" s="70">
+      <c r="AS217" s="64">
         <v>0</v>
       </c>
       <c r="AT217" s="15">
@@ -55351,10 +55351,10 @@
       <c r="BC217" s="17">
         <v>0</v>
       </c>
-      <c r="BD217" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE217" s="74">
+      <c r="BD217" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE217" s="68">
         <v>29.358230595129367</v>
       </c>
       <c r="BF217" s="12">
@@ -55566,7 +55566,7 @@
       <c r="AR218" s="17">
         <v>0</v>
       </c>
-      <c r="AS218" s="70">
+      <c r="AS218" s="64">
         <v>0</v>
       </c>
       <c r="AT218" s="15">
@@ -55599,10 +55599,10 @@
       <c r="BC218" s="17">
         <v>0</v>
       </c>
-      <c r="BD218" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE218" s="74">
+      <c r="BD218" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE218" s="68">
         <v>30.037121245208933</v>
       </c>
       <c r="BF218" s="12">
@@ -55814,7 +55814,7 @@
       <c r="AR219" s="17">
         <v>0</v>
       </c>
-      <c r="AS219" s="70">
+      <c r="AS219" s="64">
         <v>0</v>
       </c>
       <c r="AT219" s="15">
@@ -55847,10 +55847,10 @@
       <c r="BC219" s="17">
         <v>0</v>
       </c>
-      <c r="BD219" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE219" s="74">
+      <c r="BD219" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE219" s="68">
         <v>30.037121245208933</v>
       </c>
       <c r="BF219" s="12">
@@ -56062,7 +56062,7 @@
       <c r="AR220" s="17">
         <v>0</v>
       </c>
-      <c r="AS220" s="70">
+      <c r="AS220" s="64">
         <v>0</v>
       </c>
       <c r="AT220" s="15">
@@ -56095,10 +56095,10 @@
       <c r="BC220" s="17">
         <v>0</v>
       </c>
-      <c r="BD220" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE220" s="74">
+      <c r="BD220" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE220" s="68">
         <v>30.037121245208933</v>
       </c>
       <c r="BF220" s="12">
@@ -56310,7 +56310,7 @@
       <c r="AR221" s="17">
         <v>0</v>
       </c>
-      <c r="AS221" s="70">
+      <c r="AS221" s="64">
         <v>0</v>
       </c>
       <c r="AT221" s="15">
@@ -56343,10 +56343,10 @@
       <c r="BC221" s="17">
         <v>0</v>
       </c>
-      <c r="BD221" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE221" s="74">
+      <c r="BD221" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE221" s="68">
         <v>30.100889474771467</v>
       </c>
       <c r="BF221" s="12">
@@ -56558,7 +56558,7 @@
       <c r="AR222" s="17">
         <v>0</v>
       </c>
-      <c r="AS222" s="70">
+      <c r="AS222" s="64">
         <v>0</v>
       </c>
       <c r="AT222" s="15">
@@ -56591,10 +56591,10 @@
       <c r="BC222" s="17">
         <v>0</v>
       </c>
-      <c r="BD222" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE222" s="74">
+      <c r="BD222" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE222" s="68">
         <v>30.100889474771467</v>
       </c>
       <c r="BF222" s="12">
@@ -56806,7 +56806,7 @@
       <c r="AR223" s="17">
         <v>0</v>
       </c>
-      <c r="AS223" s="70">
+      <c r="AS223" s="64">
         <v>0</v>
       </c>
       <c r="AT223" s="15">
@@ -56839,10 +56839,10 @@
       <c r="BC223" s="17">
         <v>0</v>
       </c>
-      <c r="BD223" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE223" s="74">
+      <c r="BD223" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE223" s="68">
         <v>30.100889474771467</v>
       </c>
       <c r="BF223" s="12">
@@ -57054,7 +57054,7 @@
       <c r="AR224" s="17">
         <v>0</v>
       </c>
-      <c r="AS224" s="70">
+      <c r="AS224" s="64">
         <v>0</v>
       </c>
       <c r="AT224" s="15">
@@ -57087,10 +57087,10 @@
       <c r="BC224" s="17">
         <v>0</v>
       </c>
-      <c r="BD224" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE224" s="74">
+      <c r="BD224" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE224" s="68">
         <v>27.081250302083287</v>
       </c>
       <c r="BF224" s="12">
@@ -57302,7 +57302,7 @@
       <c r="AR225" s="17">
         <v>0</v>
       </c>
-      <c r="AS225" s="70">
+      <c r="AS225" s="64">
         <v>0</v>
       </c>
       <c r="AT225" s="15">
@@ -57335,10 +57335,10 @@
       <c r="BC225" s="17">
         <v>0</v>
       </c>
-      <c r="BD225" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE225" s="74">
+      <c r="BD225" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE225" s="68">
         <v>27.081250302083287</v>
       </c>
       <c r="BF225" s="12">
@@ -57550,7 +57550,7 @@
       <c r="AR226" s="17">
         <v>0</v>
       </c>
-      <c r="AS226" s="70">
+      <c r="AS226" s="64">
         <v>0</v>
       </c>
       <c r="AT226" s="15">
@@ -57583,10 +57583,10 @@
       <c r="BC226" s="17">
         <v>0</v>
       </c>
-      <c r="BD226" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE226" s="74">
+      <c r="BD226" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE226" s="68">
         <v>27.081250302083287</v>
       </c>
       <c r="BF226" s="12">
@@ -57798,7 +57798,7 @@
       <c r="AR227" s="17">
         <v>0</v>
       </c>
-      <c r="AS227" s="70">
+      <c r="AS227" s="64">
         <v>0</v>
       </c>
       <c r="AT227" s="15">
@@ -57831,10 +57831,10 @@
       <c r="BC227" s="17">
         <v>0</v>
       </c>
-      <c r="BD227" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE227" s="74">
+      <c r="BD227" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE227" s="68">
         <v>30.928078161679402</v>
       </c>
       <c r="BF227" s="12">
@@ -58046,7 +58046,7 @@
       <c r="AR228" s="17">
         <v>0</v>
       </c>
-      <c r="AS228" s="70">
+      <c r="AS228" s="64">
         <v>0</v>
       </c>
       <c r="AT228" s="15">
@@ -58079,10 +58079,10 @@
       <c r="BC228" s="17">
         <v>0</v>
       </c>
-      <c r="BD228" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE228" s="74">
+      <c r="BD228" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE228" s="68">
         <v>30.928078161679402</v>
       </c>
       <c r="BF228" s="12">
@@ -58294,7 +58294,7 @@
       <c r="AR229" s="17">
         <v>0</v>
       </c>
-      <c r="AS229" s="70">
+      <c r="AS229" s="64">
         <v>0</v>
       </c>
       <c r="AT229" s="15">
@@ -58327,10 +58327,10 @@
       <c r="BC229" s="17">
         <v>0</v>
       </c>
-      <c r="BD229" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE229" s="74">
+      <c r="BD229" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE229" s="68">
         <v>30.928078161679402</v>
       </c>
       <c r="BF229" s="12">
@@ -58542,7 +58542,7 @@
       <c r="AR230" s="17">
         <v>0</v>
       </c>
-      <c r="AS230" s="70">
+      <c r="AS230" s="64">
         <v>0</v>
       </c>
       <c r="AT230" s="15">
@@ -58575,10 +58575,10 @@
       <c r="BC230" s="17">
         <v>0</v>
       </c>
-      <c r="BD230" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE230" s="74">
+      <c r="BD230" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE230" s="68">
         <v>29.446991120048722</v>
       </c>
       <c r="BF230" s="12">
@@ -58790,7 +58790,7 @@
       <c r="AR231" s="17">
         <v>0</v>
       </c>
-      <c r="AS231" s="70">
+      <c r="AS231" s="64">
         <v>0</v>
       </c>
       <c r="AT231" s="15">
@@ -58823,10 +58823,10 @@
       <c r="BC231" s="17">
         <v>0</v>
       </c>
-      <c r="BD231" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE231" s="74">
+      <c r="BD231" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE231" s="68">
         <v>29.446991120048722</v>
       </c>
       <c r="BF231" s="12">
@@ -59038,7 +59038,7 @@
       <c r="AR232" s="17">
         <v>0</v>
       </c>
-      <c r="AS232" s="70">
+      <c r="AS232" s="64">
         <v>0</v>
       </c>
       <c r="AT232" s="15">
@@ -59071,10 +59071,10 @@
       <c r="BC232" s="17">
         <v>0</v>
       </c>
-      <c r="BD232" s="79">
-        <v>0</v>
-      </c>
-      <c r="BE232" s="74">
+      <c r="BD232" s="73">
+        <v>0</v>
+      </c>
+      <c r="BE232" s="68">
         <v>29.446991120048722</v>
       </c>
       <c r="BF232" s="12">
@@ -59171,5 +59171,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>